--- a/work-in-progress/Peppol Code Lists - Document types v9.4.xlsx
+++ b/work-in-progress/Peppol Code Lists - Document types v9.4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/philip/dev/git-peppol/edec-codelists/work-in-progress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5D3EB0-73C5-1E4D-BE35-EEAD042A6DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341D9C49-7178-084D-A323-1D4976898053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="1620" windowWidth="41120" windowHeight="23980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="23980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document Type" sheetId="5" r:id="rId1"/>
@@ -1357,9 +1357,6 @@
     <t>Issued by OpenPeppol?</t>
   </si>
   <si>
-    <t>Logistics Incubator</t>
-  </si>
-  <si>
     <t>cenbii-procid-ubl::urn:fdc:peppol.eu:logistics:bis:despatch_advice_w_response:1</t>
   </si>
   <si>
@@ -2672,6 +2669,9 @@
     <t>TICC-37
 TICC-402
 TICC-413</t>
+  </si>
+  <si>
+    <t>Logistics</t>
   </si>
 </sst>
 </file>
@@ -2679,7 +2679,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -2910,19 +2910,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3341,8 +3341,8 @@
   <dimension ref="A1:N307"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H48" sqref="H48"/>
+      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H215" sqref="H215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3381,7 +3381,7 @@
         <v>348</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G1" s="41" t="s">
         <v>398</v>
@@ -3390,7 +3390,7 @@
         <v>107</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>428</v>
@@ -3402,7 +3402,7 @@
         <v>109</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>152</v>
@@ -3442,7 +3442,7 @@
         <v>110</v>
       </c>
       <c r="M2" s="27" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="N2" s="31" t="s">
         <v>138</v>
@@ -3482,7 +3482,7 @@
         <v>110</v>
       </c>
       <c r="M3" s="27" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="N3" s="31" t="s">
         <v>138</v>
@@ -3522,7 +3522,7 @@
         <v>110</v>
       </c>
       <c r="M4" s="27" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="N4" s="31" t="s">
         <v>138</v>
@@ -3562,7 +3562,7 @@
         <v>111</v>
       </c>
       <c r="M5" s="27" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="N5" s="31" t="s">
         <v>139</v>
@@ -3602,7 +3602,7 @@
         <v>111</v>
       </c>
       <c r="M6" s="27" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="N6" s="31" t="s">
         <v>140</v>
@@ -3642,7 +3642,7 @@
         <v>111</v>
       </c>
       <c r="M7" s="27" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="N7" s="31" t="s">
         <v>139</v>
@@ -3682,7 +3682,7 @@
         <v>111</v>
       </c>
       <c r="M8" s="27" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="N8" s="31" t="s">
         <v>141</v>
@@ -3722,7 +3722,7 @@
         <v>111</v>
       </c>
       <c r="M9" s="27" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="N9" s="31" t="s">
         <v>142</v>
@@ -3765,7 +3765,7 @@
         <v>111</v>
       </c>
       <c r="M10" s="27" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="N10" s="31" t="s">
         <v>143</v>
@@ -3805,7 +3805,7 @@
         <v>111</v>
       </c>
       <c r="M11" s="27" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="N11" s="31" t="s">
         <v>143</v>
@@ -3845,7 +3845,7 @@
         <v>111</v>
       </c>
       <c r="M12" s="27" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N12" s="31" t="s">
         <v>144</v>
@@ -3885,7 +3885,7 @@
         <v>111</v>
       </c>
       <c r="M13" s="27" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N13" s="31" t="s">
         <v>145</v>
@@ -3925,7 +3925,7 @@
         <v>111</v>
       </c>
       <c r="M14" s="27" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N14" s="31" t="s">
         <v>146</v>
@@ -3933,7 +3933,7 @@
     </row>
     <row r="15" spans="1:14" s="31" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B15" s="27" t="s">
         <v>56</v>
@@ -3965,7 +3965,7 @@
         <v>111</v>
       </c>
       <c r="M15" s="27" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N15" s="31" t="s">
         <v>146</v>
@@ -4005,7 +4005,7 @@
         <v>111</v>
       </c>
       <c r="M16" s="27" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N16" s="31" t="s">
         <v>146</v>
@@ -4045,7 +4045,7 @@
         <v>111</v>
       </c>
       <c r="M17" s="27" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N17" s="31" t="s">
         <v>147</v>
@@ -4053,7 +4053,7 @@
     </row>
     <row r="18" spans="1:14" s="31" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="27" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B18" s="27" t="s">
         <v>56</v>
@@ -4085,7 +4085,7 @@
         <v>111</v>
       </c>
       <c r="M18" s="27" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N18" s="31" t="s">
         <v>147</v>
@@ -4125,7 +4125,7 @@
         <v>111</v>
       </c>
       <c r="M19" s="27" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="N19" s="31" t="s">
         <v>148</v>
@@ -4165,7 +4165,7 @@
         <v>111</v>
       </c>
       <c r="M20" s="27" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="N20" s="31" t="s">
         <v>148</v>
@@ -4205,7 +4205,7 @@
         <v>111</v>
       </c>
       <c r="M21" s="27" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="N21" s="31" t="s">
         <v>148</v>
@@ -4245,7 +4245,7 @@
         <v>111</v>
       </c>
       <c r="M22" s="27" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N22" s="31" t="s">
         <v>148</v>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="23" spans="1:14" s="31" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="31" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B23" s="27" t="s">
         <v>56</v>
@@ -4285,7 +4285,7 @@
         <v>111</v>
       </c>
       <c r="M23" s="27" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N23" s="31" t="s">
         <v>148</v>
@@ -4325,7 +4325,7 @@
         <v>111</v>
       </c>
       <c r="M24" s="27" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N24" s="31" t="s">
         <v>148</v>
@@ -4363,7 +4363,7 @@
         <v>111</v>
       </c>
       <c r="M25" s="27" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N25" s="31" t="s">
         <v>144</v>
@@ -4396,7 +4396,7 @@
         <v>111</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N26" s="5" t="s">
         <v>147</v>
@@ -4436,7 +4436,7 @@
         <v>111</v>
       </c>
       <c r="M27" s="27" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="N27" s="31" t="s">
         <v>149</v>
@@ -4479,7 +4479,7 @@
         <v>111</v>
       </c>
       <c r="M28" s="27" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="N28" s="31" t="s">
         <v>149</v>
@@ -4519,7 +4519,7 @@
         <v>111</v>
       </c>
       <c r="M29" s="27" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="N29" s="31" t="s">
         <v>149</v>
@@ -4559,7 +4559,7 @@
         <v>111</v>
       </c>
       <c r="M30" s="27" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="N30" s="31" t="s">
         <v>150</v>
@@ -4599,7 +4599,7 @@
         <v>111</v>
       </c>
       <c r="M31" s="27" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N31" s="31" t="s">
         <v>151</v>
@@ -4607,7 +4607,7 @@
     </row>
     <row r="32" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>56</v>
@@ -4622,7 +4622,7 @@
         <v>350</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="I32" s="5" t="b">
         <v>0</v>
@@ -4638,15 +4638,15 @@
         <v>111</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>56</v>
@@ -4661,7 +4661,7 @@
         <v>350</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="I33" s="5" t="b">
         <v>0</v>
@@ -4677,10 +4677,10 @@
         <v>111</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="48" x14ac:dyDescent="0.2">
@@ -4710,7 +4710,7 @@
         <v>111</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="N34" s="5" t="s">
         <v>149</v>
@@ -4751,7 +4751,7 @@
         <v>111</v>
       </c>
       <c r="M35" s="27" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="N35" s="31" t="s">
         <v>149</v>
@@ -4787,7 +4787,7 @@
         <v>111</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="N36" s="5" t="s">
         <v>149</v>
@@ -4795,7 +4795,7 @@
     </row>
     <row r="37" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>56</v>
@@ -4823,7 +4823,7 @@
         <v>111</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N37" s="7" t="s">
         <v>123</v>
@@ -4831,7 +4831,7 @@
     </row>
     <row r="38" spans="1:14" s="31" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A38" s="31" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B38" s="27" t="s">
         <v>56</v>
@@ -4846,11 +4846,11 @@
         <v>349</v>
       </c>
       <c r="F38" s="33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G38" s="42"/>
       <c r="H38" s="31" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I38" s="31" t="b">
         <v>0</v>
@@ -4866,7 +4866,7 @@
         <v>110</v>
       </c>
       <c r="M38" s="27" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="N38" s="31" t="s">
         <v>137</v>
@@ -4874,7 +4874,7 @@
     </row>
     <row r="39" spans="1:14" s="31" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A39" s="31" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B39" s="27" t="s">
         <v>56</v>
@@ -4889,11 +4889,11 @@
         <v>349</v>
       </c>
       <c r="F39" s="33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G39" s="42"/>
       <c r="H39" s="31" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I39" s="31" t="b">
         <v>0</v>
@@ -4909,7 +4909,7 @@
         <v>110</v>
       </c>
       <c r="M39" s="27" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="N39" s="31" t="s">
         <v>137</v>
@@ -4917,7 +4917,7 @@
     </row>
     <row r="40" spans="1:14" s="31" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A40" s="31" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B40" s="27" t="s">
         <v>56</v>
@@ -4932,11 +4932,11 @@
         <v>349</v>
       </c>
       <c r="F40" s="33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G40" s="42"/>
       <c r="H40" s="31" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I40" s="31" t="b">
         <v>0</v>
@@ -4952,7 +4952,7 @@
         <v>110</v>
       </c>
       <c r="M40" s="27" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="N40" s="31" t="s">
         <v>136</v>
@@ -4960,7 +4960,7 @@
     </row>
     <row r="41" spans="1:14" s="31" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A41" s="31" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B41" s="27" t="s">
         <v>56</v>
@@ -4975,11 +4975,11 @@
         <v>349</v>
       </c>
       <c r="F41" s="33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G41" s="42"/>
       <c r="H41" s="31" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I41" s="31" t="b">
         <v>0</v>
@@ -4995,7 +4995,7 @@
         <v>110</v>
       </c>
       <c r="M41" s="27" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="N41" s="31" t="s">
         <v>136</v>
@@ -5003,7 +5003,7 @@
     </row>
     <row r="42" spans="1:14" s="31" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A42" s="31" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B42" s="27" t="s">
         <v>56</v>
@@ -5018,11 +5018,11 @@
         <v>349</v>
       </c>
       <c r="F42" s="33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G42" s="42"/>
       <c r="H42" s="31" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I42" s="31" t="b">
         <v>0</v>
@@ -5038,7 +5038,7 @@
         <v>110</v>
       </c>
       <c r="M42" s="27" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="N42" s="31" t="s">
         <v>135</v>
@@ -5046,7 +5046,7 @@
     </row>
     <row r="43" spans="1:14" s="31" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A43" s="31" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B43" s="27" t="s">
         <v>56</v>
@@ -5061,11 +5061,11 @@
         <v>349</v>
       </c>
       <c r="F43" s="33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G43" s="42"/>
       <c r="H43" s="31" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I43" s="31" t="b">
         <v>0</v>
@@ -5081,7 +5081,7 @@
         <v>110</v>
       </c>
       <c r="M43" s="27" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="N43" s="31" t="s">
         <v>135</v>
@@ -5101,7 +5101,7 @@
         <v>3</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F44" s="15">
         <v>5</v>
@@ -5110,7 +5110,7 @@
         <v>45070</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I44" s="13" t="b">
         <v>0</v>
@@ -5124,7 +5124,7 @@
         <v>111</v>
       </c>
       <c r="M44" s="14" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N44" s="16" t="s">
         <v>123</v>
@@ -5132,7 +5132,7 @@
     </row>
     <row r="45" spans="1:14" s="13" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B45" s="14" t="s">
         <v>56</v>
@@ -5144,7 +5144,7 @@
         <v>3</v>
       </c>
       <c r="E45" s="21" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F45" s="15">
         <v>5</v>
@@ -5153,7 +5153,7 @@
         <v>45070</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I45" s="13" t="b">
         <v>0</v>
@@ -5167,7 +5167,7 @@
         <v>111</v>
       </c>
       <c r="M45" s="14" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N45" s="16" t="s">
         <v>123</v>
@@ -5187,7 +5187,7 @@
         <v>3</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F46" s="15">
         <v>5</v>
@@ -5196,7 +5196,7 @@
         <v>45070</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I46" s="13" t="b">
         <v>0</v>
@@ -5210,7 +5210,7 @@
         <v>111</v>
       </c>
       <c r="M46" s="14" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N46" s="16" t="s">
         <v>123</v>
@@ -5233,13 +5233,13 @@
         <v>349</v>
       </c>
       <c r="F47" s="33" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="G47" s="42">
         <v>46025</v>
       </c>
       <c r="H47" s="31" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="I47" s="31" t="b">
         <v>0</v>
@@ -5250,10 +5250,10 @@
       </c>
       <c r="K47" s="29"/>
       <c r="L47" s="27" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="M47" s="27" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="N47" s="31" t="s">
         <v>121</v>
@@ -5276,13 +5276,13 @@
         <v>349</v>
       </c>
       <c r="F48" s="33" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="G48" s="42">
         <v>46025</v>
       </c>
       <c r="H48" s="31" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="I48" s="31" t="b">
         <v>0</v>
@@ -5293,10 +5293,10 @@
       </c>
       <c r="K48" s="29"/>
       <c r="L48" s="27" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="M48" s="27" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N48" s="31" t="s">
         <v>122</v>
@@ -5332,7 +5332,7 @@
         <v>111</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N49" s="7" t="s">
         <v>123</v>
@@ -5368,7 +5368,7 @@
         <v>111</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N50" s="7" t="s">
         <v>123</v>
@@ -5376,7 +5376,7 @@
     </row>
     <row r="51" spans="1:14" s="31" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A51" s="31" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B51" s="27" t="s">
         <v>56</v>
@@ -5408,7 +5408,7 @@
         <v>111</v>
       </c>
       <c r="M51" s="27" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="N51" s="31" t="s">
         <v>124</v>
@@ -5416,7 +5416,7 @@
     </row>
     <row r="52" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>56</v>
@@ -5444,7 +5444,7 @@
         <v>111</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="N52" s="5" t="s">
         <v>125</v>
@@ -5452,7 +5452,7 @@
     </row>
     <row r="53" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>56</v>
@@ -5480,7 +5480,7 @@
         <v>111</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="N53" s="7" t="s">
         <v>126</v>
@@ -5488,7 +5488,7 @@
     </row>
     <row r="54" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>56</v>
@@ -5503,7 +5503,7 @@
         <v>350</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I54" s="5" t="b">
         <v>0</v>
@@ -5519,15 +5519,15 @@
         <v>111</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="N54" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>56</v>
@@ -5542,7 +5542,7 @@
         <v>350</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="I55" s="5" t="b">
         <v>0</v>
@@ -5558,15 +5558,15 @@
         <v>111</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="N55" s="5" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>56</v>
@@ -5594,7 +5594,7 @@
         <v>111</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="N56" s="7" t="s">
         <v>127</v>
@@ -5602,7 +5602,7 @@
     </row>
     <row r="57" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>56</v>
@@ -5630,7 +5630,7 @@
         <v>111</v>
       </c>
       <c r="M57" s="4" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="N57" s="7" t="s">
         <v>128</v>
@@ -5638,7 +5638,7 @@
     </row>
     <row r="58" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>56</v>
@@ -5666,7 +5666,7 @@
         <v>111</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="N58" s="7" t="s">
         <v>129</v>
@@ -5674,7 +5674,7 @@
     </row>
     <row r="59" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>56</v>
@@ -5702,7 +5702,7 @@
         <v>111</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="N59" s="7" t="s">
         <v>130</v>
@@ -5710,7 +5710,7 @@
     </row>
     <row r="60" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>56</v>
@@ -5738,7 +5738,7 @@
         <v>111</v>
       </c>
       <c r="M60" s="4" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N60" s="7" t="s">
         <v>131</v>
@@ -5771,7 +5771,7 @@
         <v>111</v>
       </c>
       <c r="M61" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N61" s="7" t="s">
         <v>123</v>
@@ -5779,7 +5779,7 @@
     </row>
     <row r="62" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>56</v>
@@ -5804,7 +5804,7 @@
         <v>111</v>
       </c>
       <c r="M62" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N62" s="7" t="s">
         <v>123</v>
@@ -5812,7 +5812,7 @@
     </row>
     <row r="63" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>56</v>
@@ -5840,7 +5840,7 @@
         <v>111</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N63" s="7" t="s">
         <v>123</v>
@@ -5883,7 +5883,7 @@
         <v>111</v>
       </c>
       <c r="M64" s="27" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N64" s="34" t="s">
         <v>123</v>
@@ -5891,7 +5891,7 @@
     </row>
     <row r="65" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>56</v>
@@ -5922,7 +5922,7 @@
         <v>111</v>
       </c>
       <c r="M65" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N65" s="7" t="s">
         <v>123</v>
@@ -5942,16 +5942,16 @@
         <v>5</v>
       </c>
       <c r="E66" s="21" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F66" s="17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G66" s="44">
         <v>45070</v>
       </c>
       <c r="H66" s="13" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I66" s="13" t="b">
         <v>0</v>
@@ -5965,7 +5965,7 @@
         <v>111</v>
       </c>
       <c r="M66" s="14" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N66" s="16" t="s">
         <v>123</v>
@@ -5973,7 +5973,7 @@
     </row>
     <row r="67" spans="1:14" s="13" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A67" s="13" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B67" s="14" t="s">
         <v>56</v>
@@ -5985,16 +5985,16 @@
         <v>5</v>
       </c>
       <c r="E67" s="21" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F67" s="17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G67" s="44">
         <v>45070</v>
       </c>
       <c r="H67" s="13" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I67" s="13" t="b">
         <v>0</v>
@@ -6008,7 +6008,7 @@
         <v>111</v>
       </c>
       <c r="M67" s="14" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N67" s="16" t="s">
         <v>123</v>
@@ -6028,16 +6028,16 @@
         <v>5</v>
       </c>
       <c r="E68" s="21" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F68" s="17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G68" s="44">
         <v>45070</v>
       </c>
       <c r="H68" s="13" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I68" s="13" t="b">
         <v>0</v>
@@ -6051,7 +6051,7 @@
         <v>111</v>
       </c>
       <c r="M68" s="14" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N68" s="16" t="s">
         <v>123</v>
@@ -6087,7 +6087,7 @@
         <v>111</v>
       </c>
       <c r="M69" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N69" s="7" t="s">
         <v>132</v>
@@ -6123,7 +6123,7 @@
         <v>111</v>
       </c>
       <c r="M70" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N70" s="7" t="s">
         <v>133</v>
@@ -6159,7 +6159,7 @@
         <v>111</v>
       </c>
       <c r="M71" s="4" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="N71" s="7" t="s">
         <v>134</v>
@@ -6167,7 +6167,7 @@
     </row>
     <row r="72" spans="1:14" s="31" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A72" s="31" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B72" s="27" t="s">
         <v>56</v>
@@ -6182,11 +6182,11 @@
         <v>349</v>
       </c>
       <c r="F72" s="35" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="G72" s="45"/>
       <c r="H72" s="31" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="I72" s="31" t="b">
         <v>0</v>
@@ -6202,7 +6202,7 @@
         <v>111</v>
       </c>
       <c r="M72" s="27" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N72" s="31" t="s">
         <v>123</v>
@@ -6210,7 +6210,7 @@
     </row>
     <row r="73" spans="1:14" s="31" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A73" s="31" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B73" s="27" t="s">
         <v>56</v>
@@ -6225,11 +6225,11 @@
         <v>349</v>
       </c>
       <c r="F73" s="35" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="G73" s="45"/>
       <c r="H73" s="31" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="I73" s="31" t="b">
         <v>0</v>
@@ -6245,7 +6245,7 @@
         <v>111</v>
       </c>
       <c r="M73" s="27" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N73" s="31" t="s">
         <v>123</v>
@@ -6268,11 +6268,11 @@
         <v>349</v>
       </c>
       <c r="F74" s="35" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="G74" s="45"/>
       <c r="H74" s="31" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="I74" s="31" t="b">
         <v>0</v>
@@ -6286,7 +6286,7 @@
         <v>111</v>
       </c>
       <c r="M74" s="27" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N74" s="31" t="s">
         <v>233</v>
@@ -6294,7 +6294,7 @@
     </row>
     <row r="75" spans="1:14" s="31" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A75" s="31" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B75" s="27" t="s">
         <v>56</v>
@@ -6309,11 +6309,11 @@
         <v>349</v>
       </c>
       <c r="F75" s="35" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="G75" s="45"/>
       <c r="H75" s="31" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="I75" s="31" t="b">
         <v>0</v>
@@ -6327,7 +6327,7 @@
         <v>111</v>
       </c>
       <c r="M75" s="27" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N75" s="31" t="s">
         <v>233</v>
@@ -6347,16 +6347,16 @@
         <v>6</v>
       </c>
       <c r="E76" s="21" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F76" s="17" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G76" s="44">
         <v>45292</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I76" s="13" t="b">
         <v>0</v>
@@ -6370,7 +6370,7 @@
         <v>111</v>
       </c>
       <c r="M76" s="14" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N76" s="16" t="s">
         <v>144</v>
@@ -6390,16 +6390,16 @@
         <v>6</v>
       </c>
       <c r="E77" s="21" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F77" s="17" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G77" s="44">
         <v>45292</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I77" s="13" t="b">
         <v>0</v>
@@ -6413,7 +6413,7 @@
         <v>111</v>
       </c>
       <c r="M77" s="14" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="N77" s="16" t="s">
         <v>143</v>
@@ -6433,7 +6433,7 @@
         <v>7</v>
       </c>
       <c r="E78" s="21" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F78" s="17" t="s">
         <v>193</v>
@@ -6442,7 +6442,7 @@
         <v>45070</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I78" s="13" t="b">
         <v>0</v>
@@ -6456,7 +6456,7 @@
         <v>111</v>
       </c>
       <c r="M78" s="14" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N78" s="16" t="s">
         <v>123</v>
@@ -6464,7 +6464,7 @@
     </row>
     <row r="79" spans="1:14" s="13" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A79" s="13" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B79" s="14" t="s">
         <v>56</v>
@@ -6476,7 +6476,7 @@
         <v>7</v>
       </c>
       <c r="E79" s="21" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F79" s="17" t="s">
         <v>193</v>
@@ -6485,7 +6485,7 @@
         <v>45070</v>
       </c>
       <c r="H79" s="13" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I79" s="13" t="b">
         <v>0</v>
@@ -6499,7 +6499,7 @@
         <v>111</v>
       </c>
       <c r="M79" s="14" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N79" s="16" t="s">
         <v>123</v>
@@ -6519,7 +6519,7 @@
         <v>7</v>
       </c>
       <c r="E80" s="21" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F80" s="17" t="s">
         <v>193</v>
@@ -6528,7 +6528,7 @@
         <v>45070</v>
       </c>
       <c r="H80" s="13" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I80" s="13" t="b">
         <v>0</v>
@@ -6542,7 +6542,7 @@
         <v>111</v>
       </c>
       <c r="M80" s="14" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N80" s="16" t="s">
         <v>123</v>
@@ -6578,7 +6578,7 @@
         <v>111</v>
       </c>
       <c r="M81" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N81" s="7" t="s">
         <v>123</v>
@@ -6586,7 +6586,7 @@
     </row>
     <row r="82" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>56</v>
@@ -6614,7 +6614,7 @@
         <v>111</v>
       </c>
       <c r="M82" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N82" s="7" t="s">
         <v>123</v>
@@ -6634,7 +6634,7 @@
         <v>7</v>
       </c>
       <c r="E83" s="21" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F83" s="18" t="s">
         <v>229</v>
@@ -6643,7 +6643,7 @@
         <v>45070</v>
       </c>
       <c r="H83" s="13" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I83" s="13" t="b">
         <v>0</v>
@@ -6657,7 +6657,7 @@
         <v>111</v>
       </c>
       <c r="M83" s="14" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N83" s="16" t="s">
         <v>123</v>
@@ -6693,7 +6693,7 @@
         <v>111</v>
       </c>
       <c r="M84" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N84" s="7" t="s">
         <v>123</v>
@@ -6713,7 +6713,7 @@
         <v>7</v>
       </c>
       <c r="E85" s="21" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F85" s="17" t="s">
         <v>193</v>
@@ -6722,7 +6722,7 @@
         <v>45070</v>
       </c>
       <c r="H85" s="13" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I85" s="13" t="b">
         <v>0</v>
@@ -6736,7 +6736,7 @@
         <v>111</v>
       </c>
       <c r="M85" s="14" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N85" s="16" t="s">
         <v>123</v>
@@ -6744,7 +6744,7 @@
     </row>
     <row r="86" spans="1:14" s="13" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A86" s="13" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B86" s="14" t="s">
         <v>56</v>
@@ -6756,7 +6756,7 @@
         <v>7</v>
       </c>
       <c r="E86" s="21" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F86" s="17" t="s">
         <v>193</v>
@@ -6765,7 +6765,7 @@
         <v>45070</v>
       </c>
       <c r="H86" s="13" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I86" s="13" t="b">
         <v>0</v>
@@ -6779,7 +6779,7 @@
         <v>111</v>
       </c>
       <c r="M86" s="14" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N86" s="16" t="s">
         <v>123</v>
@@ -6799,7 +6799,7 @@
         <v>7</v>
       </c>
       <c r="E87" s="21" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F87" s="17" t="s">
         <v>193</v>
@@ -6808,7 +6808,7 @@
         <v>45070</v>
       </c>
       <c r="H87" s="13" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I87" s="13" t="b">
         <v>0</v>
@@ -6822,7 +6822,7 @@
         <v>111</v>
       </c>
       <c r="M87" s="14" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N87" s="16" t="s">
         <v>123</v>
@@ -6858,7 +6858,7 @@
         <v>111</v>
       </c>
       <c r="M88" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N88" s="7" t="s">
         <v>123</v>
@@ -6899,7 +6899,7 @@
         <v>111</v>
       </c>
       <c r="M89" s="27" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="N89" s="31" t="s">
         <v>177</v>
@@ -6940,7 +6940,7 @@
         <v>111</v>
       </c>
       <c r="M90" s="27" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="N90" s="31" t="s">
         <v>177</v>
@@ -6981,7 +6981,7 @@
         <v>111</v>
       </c>
       <c r="M91" s="27" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="N91" s="31" t="s">
         <v>177</v>
@@ -7022,7 +7022,7 @@
         <v>111</v>
       </c>
       <c r="M92" s="27" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="N92" s="31" t="s">
         <v>177</v>
@@ -7058,7 +7058,7 @@
         <v>111</v>
       </c>
       <c r="M93" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N93" s="5" t="s">
         <v>189</v>
@@ -7066,7 +7066,7 @@
     </row>
     <row r="94" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>56</v>
@@ -7094,7 +7094,7 @@
         <v>111</v>
       </c>
       <c r="M94" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N94" s="5" t="s">
         <v>189</v>
@@ -7130,7 +7130,7 @@
         <v>111</v>
       </c>
       <c r="M95" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N95" s="5" t="s">
         <v>189</v>
@@ -7166,7 +7166,7 @@
         <v>111</v>
       </c>
       <c r="M96" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N96" s="7" t="s">
         <v>123</v>
@@ -7174,7 +7174,7 @@
     </row>
     <row r="97" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>56</v>
@@ -7202,7 +7202,7 @@
         <v>111</v>
       </c>
       <c r="M97" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N97" s="7" t="s">
         <v>123</v>
@@ -7222,7 +7222,7 @@
         <v>193</v>
       </c>
       <c r="E98" s="21" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F98" s="18" t="s">
         <v>229</v>
@@ -7231,7 +7231,7 @@
         <v>45070</v>
       </c>
       <c r="H98" s="13" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I98" s="13" t="b">
         <v>0</v>
@@ -7245,7 +7245,7 @@
         <v>111</v>
       </c>
       <c r="M98" s="14" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N98" s="16" t="s">
         <v>123</v>
@@ -7281,7 +7281,7 @@
         <v>111</v>
       </c>
       <c r="M99" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N99" s="7" t="s">
         <v>123</v>
@@ -7317,7 +7317,7 @@
         <v>111</v>
       </c>
       <c r="M100" s="4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="N100" s="5" t="s">
         <v>234</v>
@@ -7353,7 +7353,7 @@
         <v>111</v>
       </c>
       <c r="M101" s="4" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="N101" s="7" t="s">
         <v>128</v>
@@ -7389,7 +7389,7 @@
         <v>111</v>
       </c>
       <c r="M102" s="4" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="N102" s="10" t="s">
         <v>212</v>
@@ -7409,16 +7409,16 @@
         <v>214</v>
       </c>
       <c r="E103" s="21" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F103" s="17" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G103" s="44">
         <v>45473</v>
       </c>
       <c r="H103" s="13" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I103" s="13" t="b">
         <v>0</v>
@@ -7430,7 +7430,7 @@
       <c r="K103" s="21"/>
       <c r="L103" s="14"/>
       <c r="M103" s="14" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="N103" s="16" t="s">
         <v>216</v>
@@ -7466,7 +7466,7 @@
         <v>111</v>
       </c>
       <c r="M104" s="4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="N104" s="5" t="s">
         <v>407</v>
@@ -7502,7 +7502,7 @@
         <v>111</v>
       </c>
       <c r="M105" s="4" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="N105" s="5" t="s">
         <v>177</v>
@@ -7538,7 +7538,7 @@
         <v>111</v>
       </c>
       <c r="M106" s="4" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="N106" s="5" t="s">
         <v>177</v>
@@ -7574,7 +7574,7 @@
         <v>111</v>
       </c>
       <c r="M107" s="4" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="N107" s="5" t="s">
         <v>407</v>
@@ -7610,7 +7610,7 @@
         <v>347</v>
       </c>
       <c r="M108" s="40" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="N108" s="5" t="s">
         <v>403</v>
@@ -7646,7 +7646,7 @@
         <v>347</v>
       </c>
       <c r="M109" s="40" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="N109" s="5" t="s">
         <v>405</v>
@@ -7682,7 +7682,7 @@
         <v>347</v>
       </c>
       <c r="M110" s="40" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="N110" s="5" t="s">
         <v>405</v>
@@ -7718,7 +7718,7 @@
         <v>347</v>
       </c>
       <c r="M111" s="40" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="N111" s="5" t="s">
         <v>403</v>
@@ -7754,7 +7754,7 @@
         <v>347</v>
       </c>
       <c r="M112" s="40" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="N112" s="5" t="s">
         <v>406</v>
@@ -7790,7 +7790,7 @@
         <v>347</v>
       </c>
       <c r="M113" s="40" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="N113" s="5" t="s">
         <v>403</v>
@@ -7826,7 +7826,7 @@
         <v>347</v>
       </c>
       <c r="M114" s="40" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="N114" s="5" t="s">
         <v>403</v>
@@ -7862,7 +7862,7 @@
         <v>347</v>
       </c>
       <c r="M115" s="40" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="N115" s="5" t="s">
         <v>405</v>
@@ -7898,7 +7898,7 @@
         <v>347</v>
       </c>
       <c r="M116" s="40" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="N116" s="5" t="s">
         <v>406</v>
@@ -7934,7 +7934,7 @@
         <v>347</v>
       </c>
       <c r="M117" s="40" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="N117" s="5" t="s">
         <v>404</v>
@@ -7970,7 +7970,7 @@
         <v>347</v>
       </c>
       <c r="M118" s="40" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="N118" s="5" t="s">
         <v>404</v>
@@ -8006,7 +8006,7 @@
         <v>347</v>
       </c>
       <c r="M119" s="40" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="N119" s="5" t="s">
         <v>404</v>
@@ -8042,7 +8042,7 @@
         <v>347</v>
       </c>
       <c r="M120" s="40" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="N120" s="5" t="s">
         <v>404</v>
@@ -8078,7 +8078,7 @@
         <v>347</v>
       </c>
       <c r="M121" s="40" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="N121" s="5" t="s">
         <v>404</v>
@@ -8114,7 +8114,7 @@
         <v>347</v>
       </c>
       <c r="M122" s="40" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="N122" s="5" t="s">
         <v>404</v>
@@ -8150,7 +8150,7 @@
         <v>347</v>
       </c>
       <c r="M123" s="40" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="N123" s="5" t="s">
         <v>282</v>
@@ -8186,7 +8186,7 @@
         <v>347</v>
       </c>
       <c r="M124" s="40" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="N124" s="5" t="s">
         <v>283</v>
@@ -8222,7 +8222,7 @@
         <v>347</v>
       </c>
       <c r="M125" s="40" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="N125" s="5" t="s">
         <v>283</v>
@@ -8258,7 +8258,7 @@
         <v>347</v>
       </c>
       <c r="M126" s="40" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="N126" s="5" t="s">
         <v>283</v>
@@ -8294,7 +8294,7 @@
         <v>347</v>
       </c>
       <c r="M127" s="40" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="N127" s="5" t="s">
         <v>284</v>
@@ -8330,7 +8330,7 @@
         <v>347</v>
       </c>
       <c r="M128" s="40" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="N128" s="5" t="s">
         <v>284</v>
@@ -8366,7 +8366,7 @@
         <v>347</v>
       </c>
       <c r="M129" s="40" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="N129" s="5" t="s">
         <v>284</v>
@@ -8374,13 +8374,13 @@
     </row>
     <row r="130" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B130" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D130" s="24" t="s">
         <v>280</v>
@@ -8404,7 +8404,7 @@
         <v>110</v>
       </c>
       <c r="M130" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="N130" s="5" t="s">
         <v>288</v>
@@ -8412,7 +8412,7 @@
     </row>
     <row r="131" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A131" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B131" s="5" t="s">
         <v>56</v>
@@ -8442,7 +8442,7 @@
         <v>110</v>
       </c>
       <c r="M131" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="N131" s="5" t="s">
         <v>288</v>
@@ -8450,13 +8450,13 @@
     </row>
     <row r="132" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B132" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D132" s="24" t="s">
         <v>280</v>
@@ -8480,7 +8480,7 @@
         <v>110</v>
       </c>
       <c r="M132" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="N132" s="5" t="s">
         <v>289</v>
@@ -8488,7 +8488,7 @@
     </row>
     <row r="133" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A133" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B133" s="5" t="s">
         <v>56</v>
@@ -8518,7 +8518,7 @@
         <v>110</v>
       </c>
       <c r="M133" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="N133" s="5" t="s">
         <v>289</v>
@@ -8553,7 +8553,7 @@
         <v>111</v>
       </c>
       <c r="M134" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="N134" s="5" t="s">
         <v>141</v>
@@ -8588,7 +8588,7 @@
         <v>111</v>
       </c>
       <c r="M135" s="4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="N135" s="5" t="s">
         <v>141</v>
@@ -8623,7 +8623,7 @@
         <v>111</v>
       </c>
       <c r="M136" s="4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="N136" s="5" t="s">
         <v>149</v>
@@ -8658,7 +8658,7 @@
         <v>111</v>
       </c>
       <c r="M137" s="4" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="N137" s="5" t="s">
         <v>149</v>
@@ -8693,7 +8693,7 @@
         <v>111</v>
       </c>
       <c r="M138" s="4" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="N138" s="5" t="s">
         <v>150</v>
@@ -8728,7 +8728,7 @@
         <v>111</v>
       </c>
       <c r="M139" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="N139" s="5" t="s">
         <v>319</v>
@@ -8763,7 +8763,7 @@
         <v>111</v>
       </c>
       <c r="M140" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="N140" s="5" t="s">
         <v>320</v>
@@ -8798,7 +8798,7 @@
         <v>111</v>
       </c>
       <c r="M141" s="4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="N141" s="5" t="s">
         <v>320</v>
@@ -8833,7 +8833,7 @@
         <v>111</v>
       </c>
       <c r="M142" s="4" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="N142" s="5" t="s">
         <v>321</v>
@@ -8868,7 +8868,7 @@
         <v>111</v>
       </c>
       <c r="M143" s="4" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="N143" s="5" t="s">
         <v>322</v>
@@ -8903,7 +8903,7 @@
         <v>111</v>
       </c>
       <c r="M144" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N144" s="5" t="s">
         <v>323</v>
@@ -8938,7 +8938,7 @@
         <v>111</v>
       </c>
       <c r="M145" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N145" s="5" t="s">
         <v>324</v>
@@ -8973,7 +8973,7 @@
         <v>111</v>
       </c>
       <c r="M146" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N146" s="5" t="s">
         <v>325</v>
@@ -9008,7 +9008,7 @@
         <v>111</v>
       </c>
       <c r="M147" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N147" s="5" t="s">
         <v>325</v>
@@ -9043,7 +9043,7 @@
         <v>111</v>
       </c>
       <c r="M148" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N148" s="7" t="s">
         <v>123</v>
@@ -9051,7 +9051,7 @@
     </row>
     <row r="149" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A149" s="5" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>56</v>
@@ -9078,7 +9078,7 @@
         <v>111</v>
       </c>
       <c r="M149" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N149" s="7" t="s">
         <v>123</v>
@@ -9113,7 +9113,7 @@
         <v>111</v>
       </c>
       <c r="M150" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N150" s="7" t="s">
         <v>123</v>
@@ -9148,7 +9148,7 @@
         <v>111</v>
       </c>
       <c r="M151" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N151" s="7" t="s">
         <v>123</v>
@@ -9156,7 +9156,7 @@
     </row>
     <row r="152" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A152" s="5" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>56</v>
@@ -9183,7 +9183,7 @@
         <v>111</v>
       </c>
       <c r="M152" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N152" s="7" t="s">
         <v>123</v>
@@ -9218,7 +9218,7 @@
         <v>111</v>
       </c>
       <c r="M153" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N153" s="7" t="s">
         <v>123</v>
@@ -9253,7 +9253,7 @@
         <v>111</v>
       </c>
       <c r="M154" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N154" s="5" t="s">
         <v>354</v>
@@ -9288,7 +9288,7 @@
         <v>111</v>
       </c>
       <c r="M155" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N155" s="5" t="s">
         <v>353</v>
@@ -9323,7 +9323,7 @@
         <v>111</v>
       </c>
       <c r="M156" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N156" s="5" t="s">
         <v>355</v>
@@ -9361,7 +9361,7 @@
         <v>110</v>
       </c>
       <c r="M157" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="N157" s="5" t="s">
         <v>389</v>
@@ -9399,7 +9399,7 @@
         <v>110</v>
       </c>
       <c r="M158" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="N158" s="5" t="s">
         <v>389</v>
@@ -9437,7 +9437,7 @@
         <v>110</v>
       </c>
       <c r="M159" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="N159" s="5" t="s">
         <v>390</v>
@@ -9475,7 +9475,7 @@
         <v>110</v>
       </c>
       <c r="M160" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="N160" s="5" t="s">
         <v>390</v>
@@ -9513,7 +9513,7 @@
         <v>110</v>
       </c>
       <c r="M161" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="N161" s="5" t="s">
         <v>391</v>
@@ -9551,7 +9551,7 @@
         <v>110</v>
       </c>
       <c r="M162" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="N162" s="5" t="s">
         <v>391</v>
@@ -9565,7 +9565,7 @@
         <v>56</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D163" s="24" t="s">
         <v>280</v>
@@ -9589,7 +9589,7 @@
         <v>110</v>
       </c>
       <c r="M163" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="N163" s="5" t="s">
         <v>392</v>
@@ -9603,7 +9603,7 @@
         <v>56</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D164" s="24" t="s">
         <v>280</v>
@@ -9627,7 +9627,7 @@
         <v>110</v>
       </c>
       <c r="M164" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="N164" s="5" t="s">
         <v>392</v>
@@ -9641,7 +9641,7 @@
         <v>56</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D165" s="24" t="s">
         <v>280</v>
@@ -9665,7 +9665,7 @@
         <v>110</v>
       </c>
       <c r="M165" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="N165" s="5" t="s">
         <v>393</v>
@@ -9703,7 +9703,7 @@
         <v>110</v>
       </c>
       <c r="M166" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="N166" s="5" t="s">
         <v>393</v>
@@ -9717,7 +9717,7 @@
         <v>56</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D167" s="24" t="s">
         <v>280</v>
@@ -9741,7 +9741,7 @@
         <v>110</v>
       </c>
       <c r="M167" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="N167" s="5" t="s">
         <v>394</v>
@@ -9779,7 +9779,7 @@
         <v>110</v>
       </c>
       <c r="M168" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="N168" s="5" t="s">
         <v>394</v>
@@ -9793,7 +9793,7 @@
         <v>56</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D169" s="24" t="s">
         <v>280</v>
@@ -9817,7 +9817,7 @@
         <v>110</v>
       </c>
       <c r="M169" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="N169" s="5" t="s">
         <v>395</v>
@@ -9855,7 +9855,7 @@
         <v>110</v>
       </c>
       <c r="M170" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="N170" s="5" t="s">
         <v>395</v>
@@ -9869,7 +9869,7 @@
         <v>56</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D171" s="24" t="s">
         <v>280</v>
@@ -9893,7 +9893,7 @@
         <v>110</v>
       </c>
       <c r="M171" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="N171" s="5" t="s">
         <v>396</v>
@@ -9931,7 +9931,7 @@
         <v>110</v>
       </c>
       <c r="M172" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="N172" s="5" t="s">
         <v>396</v>
@@ -9939,13 +9939,13 @@
     </row>
     <row r="173" spans="1:14" s="31" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A173" s="31" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B173" s="27" t="s">
         <v>56</v>
       </c>
       <c r="C173" s="31" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D173" s="32" t="s">
         <v>280</v>
@@ -9954,11 +9954,11 @@
         <v>349</v>
       </c>
       <c r="F173" s="33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G173" s="42"/>
       <c r="H173" s="31" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="I173" s="31" t="b">
         <v>0</v>
@@ -9973,7 +9973,7 @@
         <v>110</v>
       </c>
       <c r="M173" s="27" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="N173" s="31" t="s">
         <v>397</v>
@@ -9987,16 +9987,16 @@
         <v>56</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D174" s="24" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E174" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H174" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="I174" s="5" t="b">
         <v>0</v>
@@ -10011,7 +10011,7 @@
         <v>110</v>
       </c>
       <c r="M174" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="N174" s="5" t="s">
         <v>397</v>
@@ -10046,7 +10046,7 @@
         <v>111</v>
       </c>
       <c r="M175" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N175" s="7" t="s">
         <v>123</v>
@@ -10054,7 +10054,7 @@
     </row>
     <row r="176" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A176" s="5" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>56</v>
@@ -10081,7 +10081,7 @@
         <v>111</v>
       </c>
       <c r="M176" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N176" s="7" t="s">
         <v>123</v>
@@ -10116,7 +10116,7 @@
         <v>111</v>
       </c>
       <c r="M177" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N177" s="7" t="s">
         <v>123</v>
@@ -10151,7 +10151,7 @@
         <v>111</v>
       </c>
       <c r="M178" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N178" s="7" t="s">
         <v>123</v>
@@ -10159,7 +10159,7 @@
     </row>
     <row r="179" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A179" s="5" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>56</v>
@@ -10186,7 +10186,7 @@
         <v>111</v>
       </c>
       <c r="M179" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N179" s="7" t="s">
         <v>123</v>
@@ -10221,7 +10221,7 @@
         <v>111</v>
       </c>
       <c r="M180" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N180" s="7" t="s">
         <v>123</v>
@@ -10229,7 +10229,7 @@
     </row>
     <row r="181" spans="1:14" s="13" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A181" s="38" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B181" s="14" t="s">
         <v>56</v>
@@ -10241,16 +10241,16 @@
         <v>412</v>
       </c>
       <c r="E181" s="21" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F181" s="18" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="G181" s="44">
         <v>45689</v>
       </c>
       <c r="H181" s="13" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I181" s="13" t="b">
         <v>0</v>
@@ -10263,7 +10263,7 @@
         <v>423</v>
       </c>
       <c r="M181" s="14" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="N181" s="16" t="s">
         <v>422</v>
@@ -10271,7 +10271,7 @@
     </row>
     <row r="182" spans="1:14" s="13" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A182" s="38" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B182" s="14" t="s">
         <v>56</v>
@@ -10283,16 +10283,16 @@
         <v>412</v>
       </c>
       <c r="E182" s="21" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F182" s="18" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="G182" s="44">
         <v>45689</v>
       </c>
       <c r="H182" s="13" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I182" s="13" t="b">
         <v>0</v>
@@ -10305,7 +10305,7 @@
         <v>423</v>
       </c>
       <c r="M182" s="14" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="N182" s="16" t="s">
         <v>422</v>
@@ -10313,7 +10313,7 @@
     </row>
     <row r="183" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A183" s="5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>56</v>
@@ -10328,7 +10328,7 @@
         <v>350</v>
       </c>
       <c r="H183" s="5" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="I183" s="5" t="b">
         <v>0</v>
@@ -10340,18 +10340,18 @@
         <v>1</v>
       </c>
       <c r="L183" s="4" t="s">
-        <v>429</v>
+        <v>850</v>
       </c>
       <c r="M183" s="4" t="s">
-        <v>429</v>
+        <v>850</v>
       </c>
       <c r="N183" s="37" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="184" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A184" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>56</v>
@@ -10366,7 +10366,7 @@
         <v>350</v>
       </c>
       <c r="H184" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I184" s="5" t="b">
         <v>0</v>
@@ -10378,18 +10378,18 @@
         <v>1</v>
       </c>
       <c r="L184" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="M184" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="N184" s="12" t="s">
         <v>429</v>
-      </c>
-      <c r="M184" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="N184" s="12" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="185" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A185" s="5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>56</v>
@@ -10404,7 +10404,7 @@
         <v>350</v>
       </c>
       <c r="H185" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I185" s="5" t="b">
         <v>0</v>
@@ -10416,69 +10416,69 @@
         <v>1</v>
       </c>
       <c r="L185" s="4" t="s">
-        <v>429</v>
+        <v>850</v>
       </c>
       <c r="M185" s="4" t="s">
-        <v>429</v>
+        <v>850</v>
       </c>
       <c r="N185" s="12" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="186" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A186" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C186" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="B186" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C186" s="5" t="s">
+      <c r="D186" s="23" t="s">
         <v>433</v>
       </c>
-      <c r="D186" s="23" t="s">
+      <c r="E186" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="H186" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="I186" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J186" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L186" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M186" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="N186" s="5" t="s">
         <v>434</v>
-      </c>
-      <c r="E186" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="H186" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="I186" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J186" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L186" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="M186" s="4" t="s">
-        <v>695</v>
-      </c>
-      <c r="N186" s="5" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="187" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A187" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="D187" s="23" t="s">
+        <v>433</v>
+      </c>
+      <c r="E187" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="H187" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="B187" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C187" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="D187" s="23" t="s">
-        <v>434</v>
-      </c>
-      <c r="E187" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="H187" s="5" t="s">
-        <v>465</v>
-      </c>
       <c r="I187" s="5" t="b">
         <v>0</v>
       </c>
@@ -10489,7 +10489,7 @@
         <v>111</v>
       </c>
       <c r="M187" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N187" s="5" t="s">
         <v>123</v>
@@ -10497,28 +10497,28 @@
     </row>
     <row r="188" spans="1:14" s="13" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A188" s="38" t="s">
+        <v>466</v>
+      </c>
+      <c r="B188" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C188" s="13" t="s">
         <v>467</v>
       </c>
-      <c r="B188" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C188" s="13" t="s">
-        <v>468</v>
-      </c>
       <c r="D188" s="25" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E188" s="21" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F188" s="18" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G188" s="44">
         <v>45565</v>
       </c>
       <c r="H188" s="13" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="I188" s="13" t="b">
         <v>0</v>
@@ -10534,7 +10534,7 @@
         <v>111</v>
       </c>
       <c r="M188" s="14" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N188" s="16" t="s">
         <v>123</v>
@@ -10542,22 +10542,22 @@
     </row>
     <row r="189" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A189" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B189" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C189" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="D189" s="23" t="s">
+        <v>473</v>
+      </c>
+      <c r="E189" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="H189" s="5" t="s">
         <v>469</v>
-      </c>
-      <c r="D189" s="23" t="s">
-        <v>474</v>
-      </c>
-      <c r="E189" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="H189" s="5" t="s">
-        <v>470</v>
       </c>
       <c r="I189" s="5" t="b">
         <v>0</v>
@@ -10572,30 +10572,30 @@
         <v>111</v>
       </c>
       <c r="M189" s="4" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="N189" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="190" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A190" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D190" s="23" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E190" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H190" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I190" s="5" t="b">
         <v>0</v>
@@ -10610,30 +10610,30 @@
         <v>111</v>
       </c>
       <c r="M190" s="4" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="N190" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="191" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A191" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B191" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C191" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="D191" s="23" t="s">
         <v>473</v>
       </c>
-      <c r="D191" s="23" t="s">
-        <v>474</v>
-      </c>
       <c r="E191" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H191" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I191" s="5" t="b">
         <v>0</v>
@@ -10648,31 +10648,31 @@
         <v>111</v>
       </c>
       <c r="M191" s="4" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="N191" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="192" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A192" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D192" s="24" t="s">
+        <v>488</v>
+      </c>
+      <c r="E192" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="H192" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="E192" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="H192" s="5" t="s">
-        <v>490</v>
-      </c>
       <c r="I192" s="5" t="b">
         <v>0</v>
       </c>
@@ -10683,7 +10683,7 @@
         <v>111</v>
       </c>
       <c r="M192" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N192" s="7" t="s">
         <v>123</v>
@@ -10691,23 +10691,23 @@
     </row>
     <row r="193" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A193" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D193" s="24" t="s">
+        <v>488</v>
+      </c>
+      <c r="E193" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="H193" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="E193" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="H193" s="5" t="s">
-        <v>490</v>
-      </c>
       <c r="I193" s="5" t="b">
         <v>0</v>
       </c>
@@ -10718,7 +10718,7 @@
         <v>111</v>
       </c>
       <c r="M193" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N193" s="7" t="s">
         <v>123</v>
@@ -10726,23 +10726,23 @@
     </row>
     <row r="194" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A194" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C194" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="D194" s="24" t="s">
         <v>488</v>
       </c>
-      <c r="D194" s="24" t="s">
+      <c r="E194" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="H194" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="E194" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="H194" s="5" t="s">
-        <v>490</v>
-      </c>
       <c r="I194" s="5" t="b">
         <v>0</v>
       </c>
@@ -10753,7 +10753,7 @@
         <v>111</v>
       </c>
       <c r="M194" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N194" s="7" t="s">
         <v>123</v>
@@ -10761,23 +10761,23 @@
     </row>
     <row r="195" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A195" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B195" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C195" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="D195" s="24" t="s">
+        <v>488</v>
+      </c>
+      <c r="E195" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="H195" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="D195" s="24" t="s">
-        <v>489</v>
-      </c>
-      <c r="E195" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="H195" s="5" t="s">
-        <v>498</v>
-      </c>
       <c r="I195" s="5" t="b">
         <v>0</v>
       </c>
@@ -10788,7 +10788,7 @@
         <v>111</v>
       </c>
       <c r="M195" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N195" s="7" t="s">
         <v>123</v>
@@ -10796,22 +10796,22 @@
     </row>
     <row r="196" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A196" s="5" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D196" s="24" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E196" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H196" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="I196" s="5" t="b">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>111</v>
       </c>
       <c r="M196" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N196" s="7" t="s">
         <v>123</v>
@@ -10831,22 +10831,22 @@
     </row>
     <row r="197" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A197" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B197" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D197" s="24" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E197" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H197" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="I197" s="5" t="b">
         <v>0</v>
@@ -10858,7 +10858,7 @@
         <v>111</v>
       </c>
       <c r="M197" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N197" s="7" t="s">
         <v>123</v>
@@ -10866,28 +10866,28 @@
     </row>
     <row r="198" spans="1:14" s="13" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A198" s="38" t="s">
+        <v>500</v>
+      </c>
+      <c r="B198" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C198" s="13" t="s">
         <v>501</v>
       </c>
-      <c r="B198" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C198" s="13" t="s">
+      <c r="D198" s="25" t="s">
         <v>502</v>
       </c>
-      <c r="D198" s="25" t="s">
-        <v>503</v>
-      </c>
       <c r="E198" s="21" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F198" s="18" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G198" s="44">
         <v>45565</v>
       </c>
       <c r="H198" s="13" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="I198" s="13" t="b">
         <v>0</v>
@@ -10903,30 +10903,30 @@
         <v>111</v>
       </c>
       <c r="M198" s="14" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N198" s="16" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="199" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A199" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B199" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D199" s="23" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E199" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H199" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I199" s="5" t="b">
         <v>0</v>
@@ -10942,30 +10942,30 @@
         <v>110</v>
       </c>
       <c r="M199" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="N199" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="200" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A200" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B200" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C200" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="D200" s="23" t="s">
+        <v>502</v>
+      </c>
+      <c r="E200" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="H200" s="5" t="s">
         <v>508</v>
-      </c>
-      <c r="D200" s="23" t="s">
-        <v>503</v>
-      </c>
-      <c r="E200" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="H200" s="5" t="s">
-        <v>509</v>
       </c>
       <c r="I200" s="5" t="b">
         <v>0</v>
@@ -10981,30 +10981,30 @@
         <v>110</v>
       </c>
       <c r="M200" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="N200" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="201" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A201" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B201" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D201" s="23" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E201" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H201" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I201" s="5" t="b">
         <v>0</v>
@@ -11020,30 +11020,30 @@
         <v>110</v>
       </c>
       <c r="M201" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="N201" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="202" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A202" s="5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B202" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D202" s="23" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E202" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H202" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I202" s="5" t="b">
         <v>0</v>
@@ -11059,30 +11059,30 @@
         <v>110</v>
       </c>
       <c r="M202" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="N202" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="203" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A203" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B203" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D203" s="23" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E203" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H203" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I203" s="5" t="b">
         <v>0</v>
@@ -11097,30 +11097,30 @@
         <v>110</v>
       </c>
       <c r="M203" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="N203" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="204" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A204" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B204" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D204" s="23" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E204" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H204" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I204" s="5" t="b">
         <v>0</v>
@@ -11135,30 +11135,30 @@
         <v>110</v>
       </c>
       <c r="M204" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="N204" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="205" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A205" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B205" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D205" s="23" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E205" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H205" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I205" s="5" t="b">
         <v>0</v>
@@ -11173,30 +11173,30 @@
         <v>110</v>
       </c>
       <c r="M205" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="N205" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="206" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A206" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B206" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D206" s="23" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E206" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H206" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I206" s="5" t="b">
         <v>0</v>
@@ -11211,30 +11211,30 @@
         <v>110</v>
       </c>
       <c r="M206" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="N206" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="207" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A207" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C207" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="B207" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C207" s="5" t="s">
-        <v>527</v>
-      </c>
       <c r="D207" s="23" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E207" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H207" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I207" s="5" t="b">
         <v>0</v>
@@ -11249,30 +11249,30 @@
         <v>110</v>
       </c>
       <c r="M207" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="N207" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="208" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A208" s="5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B208" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D208" s="23" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E208" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H208" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I208" s="5" t="b">
         <v>0</v>
@@ -11287,30 +11287,30 @@
         <v>110</v>
       </c>
       <c r="M208" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="N208" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="209" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A209" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B209" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D209" s="23" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E209" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H209" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I209" s="5" t="b">
         <v>0</v>
@@ -11325,30 +11325,30 @@
         <v>110</v>
       </c>
       <c r="M209" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="N209" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="210" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A210" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B210" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D210" s="23" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E210" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H210" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I210" s="5" t="b">
         <v>0</v>
@@ -11363,30 +11363,30 @@
         <v>110</v>
       </c>
       <c r="M210" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="N210" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="211" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A211" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B211" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D211" s="23" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E211" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H211" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I211" s="5" t="b">
         <v>0</v>
@@ -11401,30 +11401,30 @@
         <v>110</v>
       </c>
       <c r="M211" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="N211" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="212" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A212" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B212" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D212" s="23" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E212" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H212" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I212" s="5" t="b">
         <v>0</v>
@@ -11439,30 +11439,30 @@
         <v>110</v>
       </c>
       <c r="M212" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="N212" s="5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="213" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A213" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B213" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D213" s="23" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E213" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H213" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I213" s="5" t="b">
         <v>0</v>
@@ -11477,30 +11477,30 @@
         <v>110</v>
       </c>
       <c r="M213" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="N213" s="5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="214" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A214" s="5" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B214" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D214" s="23" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E214" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H214" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="I214" s="5" t="b">
         <v>0</v>
@@ -11512,33 +11512,33 @@
         <v>1</v>
       </c>
       <c r="L214" s="4" t="s">
-        <v>429</v>
+        <v>850</v>
       </c>
       <c r="M214" s="4" t="s">
-        <v>429</v>
+        <v>850</v>
       </c>
       <c r="N214" s="36" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="215" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A215" s="5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B215" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D215" s="23" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E215" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H215" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="I215" s="5" t="b">
         <v>0</v>
@@ -11550,33 +11550,33 @@
         <v>1</v>
       </c>
       <c r="L215" s="4" t="s">
-        <v>429</v>
+        <v>850</v>
       </c>
       <c r="M215" s="4" t="s">
-        <v>429</v>
+        <v>850</v>
       </c>
       <c r="N215" s="36" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="216" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B216" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D216" s="23" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E216" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H216" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="I216" s="5" t="b">
         <v>0</v>
@@ -11588,33 +11588,33 @@
         <v>1</v>
       </c>
       <c r="L216" s="4" t="s">
-        <v>429</v>
+        <v>850</v>
       </c>
       <c r="M216" s="4" t="s">
-        <v>429</v>
+        <v>850</v>
       </c>
       <c r="N216" s="36" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="217" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A217" s="5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B217" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D217" s="23" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E217" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H217" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="I217" s="5" t="b">
         <v>0</v>
@@ -11626,33 +11626,33 @@
         <v>1</v>
       </c>
       <c r="L217" s="4" t="s">
-        <v>429</v>
+        <v>850</v>
       </c>
       <c r="M217" s="4" t="s">
-        <v>429</v>
+        <v>850</v>
       </c>
       <c r="N217" s="36" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="218" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A218" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B218" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D218" s="23" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E218" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H218" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="I218" s="5" t="b">
         <v>0</v>
@@ -11664,33 +11664,33 @@
         <v>1</v>
       </c>
       <c r="L218" s="4" t="s">
-        <v>429</v>
+        <v>850</v>
       </c>
       <c r="M218" s="4" t="s">
-        <v>429</v>
+        <v>850</v>
       </c>
       <c r="N218" s="36" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="219" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A219" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B219" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D219" s="23" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E219" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H219" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="I219" s="5" t="b">
         <v>0</v>
@@ -11702,68 +11702,68 @@
         <v>1</v>
       </c>
       <c r="L219" s="4" t="s">
-        <v>429</v>
+        <v>850</v>
       </c>
       <c r="M219" s="4" t="s">
-        <v>429</v>
+        <v>850</v>
       </c>
       <c r="N219" s="36" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="220" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A220" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C220" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B220" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C220" s="1" t="s">
+      <c r="D220" s="23" t="s">
+        <v>565</v>
+      </c>
+      <c r="E220" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="H220" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="D220" s="23" t="s">
-        <v>566</v>
-      </c>
-      <c r="E220" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="H220" s="5" t="s">
+      <c r="I220" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J220" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L220" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="M220" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="N220" s="5" t="s">
         <v>575</v>
-      </c>
-      <c r="I220" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J220" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L220" s="4" t="s">
-        <v>577</v>
-      </c>
-      <c r="M220" s="4" t="s">
-        <v>704</v>
-      </c>
-      <c r="N220" s="5" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="221" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A221" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B221" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D221" s="23" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E221" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H221" s="5" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="I221" s="5" t="b">
         <v>0</v>
@@ -11775,30 +11775,30 @@
         <v>423</v>
       </c>
       <c r="M221" s="4" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="N221" s="5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="222" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A222" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C222" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="D222" s="23" t="s">
+        <v>565</v>
+      </c>
+      <c r="E222" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="H222" s="5" t="s">
         <v>579</v>
-      </c>
-      <c r="B222" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C222" s="5" t="s">
-        <v>582</v>
-      </c>
-      <c r="D222" s="23" t="s">
-        <v>566</v>
-      </c>
-      <c r="E222" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="H222" s="5" t="s">
-        <v>580</v>
       </c>
       <c r="I222" s="5" t="b">
         <v>0</v>
@@ -11810,30 +11810,30 @@
         <v>423</v>
       </c>
       <c r="M222" s="4" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="N222" s="5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="223" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A223" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B223" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="C223" s="5" t="s">
         <v>585</v>
       </c>
-      <c r="C223" s="5" t="s">
+      <c r="D223" s="23" t="s">
+        <v>565</v>
+      </c>
+      <c r="E223" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="H223" s="5" t="s">
         <v>586</v>
-      </c>
-      <c r="D223" s="23" t="s">
-        <v>566</v>
-      </c>
-      <c r="E223" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="H223" s="5" t="s">
-        <v>587</v>
       </c>
       <c r="I223" s="5" t="b">
         <v>1</v>
@@ -11848,30 +11848,30 @@
         <v>111</v>
       </c>
       <c r="M223" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N223" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="224" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A224" s="5" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D224" s="23" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E224" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H224" s="5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I224" s="5" t="b">
         <v>1</v>
@@ -11886,36 +11886,36 @@
         <v>111</v>
       </c>
       <c r="M224" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N224" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="225" spans="1:14" s="13" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A225" s="38" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B225" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C225" s="13" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D225" s="25" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E225" s="21" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F225" s="18" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G225" s="44">
         <v>45565</v>
       </c>
       <c r="H225" s="13" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I225" s="13" t="b">
         <v>0</v>
@@ -11930,30 +11930,30 @@
         <v>111</v>
       </c>
       <c r="M225" s="14" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N225" s="13" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="226" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D226" s="23" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E226" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H226" s="5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I226" s="5" t="b">
         <v>0</v>
@@ -11968,30 +11968,30 @@
         <v>111</v>
       </c>
       <c r="M226" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N226" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="227" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
+        <v>500</v>
+      </c>
+      <c r="B227" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="C227" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="B227" s="5" t="s">
-        <v>585</v>
-      </c>
-      <c r="C227" s="5" t="s">
-        <v>502</v>
-      </c>
       <c r="D227" s="23" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E227" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H227" s="5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I227" s="5" t="b">
         <v>0</v>
@@ -12006,36 +12006,36 @@
         <v>111</v>
       </c>
       <c r="M227" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N227" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="228" spans="1:14" s="13" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A228" s="38" t="s">
+        <v>592</v>
+      </c>
+      <c r="B228" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C228" s="13" t="s">
         <v>593</v>
       </c>
-      <c r="B228" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C228" s="13" t="s">
-        <v>594</v>
-      </c>
       <c r="D228" s="25" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E228" s="21" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F228" s="18" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G228" s="44">
         <v>45565</v>
       </c>
       <c r="H228" s="13" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I228" s="13" t="b">
         <v>0</v>
@@ -12050,30 +12050,30 @@
         <v>111</v>
       </c>
       <c r="M228" s="14" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N228" s="13" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="229" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
+        <v>592</v>
+      </c>
+      <c r="B229" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="C229" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="B229" s="5" t="s">
-        <v>585</v>
-      </c>
-      <c r="C229" s="5" t="s">
-        <v>594</v>
-      </c>
       <c r="D229" s="23" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E229" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H229" s="5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I229" s="5" t="b">
         <v>0</v>
@@ -12088,36 +12088,36 @@
         <v>111</v>
       </c>
       <c r="M229" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N229" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="230" spans="1:14" s="13" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A230" s="13" t="s">
+        <v>594</v>
+      </c>
+      <c r="B230" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C230" s="13" t="s">
         <v>595</v>
       </c>
-      <c r="B230" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C230" s="13" t="s">
-        <v>596</v>
-      </c>
       <c r="D230" s="25" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E230" s="21" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F230" s="39" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="G230" s="44">
         <v>45717</v>
       </c>
       <c r="H230" s="13" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="I230" s="13" t="b">
         <v>0</v>
@@ -12132,36 +12132,36 @@
         <v>111</v>
       </c>
       <c r="M230" s="14" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N230" s="13" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="231" spans="1:14" s="13" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A231" s="13" t="s">
+        <v>596</v>
+      </c>
+      <c r="B231" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C231" s="13" t="s">
         <v>597</v>
       </c>
-      <c r="B231" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C231" s="13" t="s">
-        <v>598</v>
-      </c>
       <c r="D231" s="25" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E231" s="21" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F231" s="39" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="G231" s="44">
         <v>45717</v>
       </c>
       <c r="H231" s="13" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="I231" s="13" t="b">
         <v>0</v>
@@ -12176,36 +12176,36 @@
         <v>111</v>
       </c>
       <c r="M231" s="14" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N231" s="13" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="232" spans="1:14" s="13" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A232" s="13" t="s">
+        <v>598</v>
+      </c>
+      <c r="B232" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C232" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="B232" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C232" s="13" t="s">
-        <v>600</v>
-      </c>
       <c r="D232" s="25" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E232" s="21" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F232" s="39" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="G232" s="44">
         <v>45717</v>
       </c>
       <c r="H232" s="13" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="I232" s="13" t="b">
         <v>0</v>
@@ -12220,36 +12220,36 @@
         <v>111</v>
       </c>
       <c r="M232" s="14" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N232" s="13" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="233" spans="1:14" s="13" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A233" s="13" t="s">
+        <v>600</v>
+      </c>
+      <c r="B233" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C233" s="13" t="s">
         <v>601</v>
       </c>
-      <c r="B233" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C233" s="13" t="s">
-        <v>602</v>
-      </c>
       <c r="D233" s="25" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E233" s="21" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F233" s="39" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="G233" s="44">
         <v>45717</v>
       </c>
       <c r="H233" s="13" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="I233" s="13" t="b">
         <v>0</v>
@@ -12264,30 +12264,30 @@
         <v>111</v>
       </c>
       <c r="M233" s="14" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N233" s="13" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="234" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A234" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="B234" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="C234" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="B234" s="5" t="s">
-        <v>585</v>
-      </c>
-      <c r="C234" s="5" t="s">
-        <v>596</v>
-      </c>
       <c r="D234" s="23" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E234" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H234" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="I234" s="5" t="b">
         <v>0</v>
@@ -12302,30 +12302,30 @@
         <v>111</v>
       </c>
       <c r="M234" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N234" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="235" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A235" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="B235" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="C235" s="5" t="s">
         <v>597</v>
       </c>
-      <c r="B235" s="5" t="s">
-        <v>585</v>
-      </c>
-      <c r="C235" s="5" t="s">
-        <v>598</v>
-      </c>
       <c r="D235" s="23" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E235" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H235" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="I235" s="5" t="b">
         <v>0</v>
@@ -12340,30 +12340,30 @@
         <v>111</v>
       </c>
       <c r="M235" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N235" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="236" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A236" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="B236" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="C236" s="5" t="s">
         <v>599</v>
       </c>
-      <c r="B236" s="5" t="s">
-        <v>585</v>
-      </c>
-      <c r="C236" s="5" t="s">
-        <v>600</v>
-      </c>
       <c r="D236" s="23" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E236" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H236" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="I236" s="5" t="b">
         <v>0</v>
@@ -12378,30 +12378,30 @@
         <v>111</v>
       </c>
       <c r="M236" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N236" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="237" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A237" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="B237" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="C237" s="5" t="s">
         <v>601</v>
       </c>
-      <c r="B237" s="5" t="s">
-        <v>585</v>
-      </c>
-      <c r="C237" s="5" t="s">
+      <c r="D237" s="23" t="s">
+        <v>565</v>
+      </c>
+      <c r="E237" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="H237" s="5" t="s">
         <v>602</v>
-      </c>
-      <c r="D237" s="23" t="s">
-        <v>566</v>
-      </c>
-      <c r="E237" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="H237" s="5" t="s">
-        <v>603</v>
       </c>
       <c r="I237" s="5" t="b">
         <v>0</v>
@@ -12416,30 +12416,30 @@
         <v>111</v>
       </c>
       <c r="M237" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N237" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="238" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A238" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B238" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D238" s="24" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E238" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H238" s="5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I238" s="5" t="b">
         <v>0</v>
@@ -12451,7 +12451,7 @@
         <v>111</v>
       </c>
       <c r="M238" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N238" s="7" t="s">
         <v>123</v>
@@ -12459,22 +12459,22 @@
     </row>
     <row r="239" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A239" s="5" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B239" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D239" s="24" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E239" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H239" s="5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I239" s="5" t="b">
         <v>0</v>
@@ -12486,7 +12486,7 @@
         <v>111</v>
       </c>
       <c r="M239" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N239" s="7" t="s">
         <v>123</v>
@@ -12494,22 +12494,22 @@
     </row>
     <row r="240" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A240" s="5" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B240" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D240" s="24" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E240" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H240" s="5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I240" s="5" t="b">
         <v>0</v>
@@ -12521,7 +12521,7 @@
         <v>111</v>
       </c>
       <c r="M240" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N240" s="7" t="s">
         <v>123</v>
@@ -12529,22 +12529,22 @@
     </row>
     <row r="241" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A241" s="5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B241" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D241" s="24" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E241" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H241" s="5" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I241" s="5" t="b">
         <v>0</v>
@@ -12556,7 +12556,7 @@
         <v>111</v>
       </c>
       <c r="M241" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N241" s="7" t="s">
         <v>123</v>
@@ -12564,22 +12564,22 @@
     </row>
     <row r="242" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A242" s="5" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B242" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D242" s="24" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E242" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H242" s="5" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I242" s="5" t="b">
         <v>0</v>
@@ -12591,7 +12591,7 @@
         <v>111</v>
       </c>
       <c r="M242" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N242" s="7" t="s">
         <v>123</v>
@@ -12599,22 +12599,22 @@
     </row>
     <row r="243" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A243" s="5" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B243" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D243" s="24" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E243" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H243" s="5" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I243" s="5" t="b">
         <v>0</v>
@@ -12626,7 +12626,7 @@
         <v>111</v>
       </c>
       <c r="M243" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N243" s="7" t="s">
         <v>123</v>
@@ -12634,22 +12634,22 @@
     </row>
     <row r="244" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A244" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="B244" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="C244" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="D244" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="E244" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="H244" s="5" t="s">
         <v>619</v>
-      </c>
-      <c r="B244" s="5" t="s">
-        <v>585</v>
-      </c>
-      <c r="C244" s="5" t="s">
-        <v>616</v>
-      </c>
-      <c r="D244" s="24" t="s">
-        <v>604</v>
-      </c>
-      <c r="E244" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="H244" s="5" t="s">
-        <v>620</v>
       </c>
       <c r="I244" s="5" t="b">
         <v>0</v>
@@ -12664,30 +12664,30 @@
         <v>111</v>
       </c>
       <c r="M244" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N244" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="245" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A245" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D245" s="24" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E245" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H245" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="I245" s="5" t="b">
         <v>0</v>
@@ -12702,30 +12702,30 @@
         <v>111</v>
       </c>
       <c r="M245" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N245" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="246" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D246" s="24" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E246" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H246" s="5" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I246" s="5" t="b">
         <v>0</v>
@@ -12740,30 +12740,30 @@
         <v>111</v>
       </c>
       <c r="M246" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N246" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="247" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D247" s="24" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E247" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H247" s="5" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I247" s="5" t="b">
         <v>0</v>
@@ -12778,30 +12778,30 @@
         <v>111</v>
       </c>
       <c r="M247" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N247" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="248" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D248" s="24" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E248" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H248" s="5" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I248" s="5" t="b">
         <v>0</v>
@@ -12816,30 +12816,30 @@
         <v>111</v>
       </c>
       <c r="M248" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N248" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="249" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C249" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="D249" s="24" t="s">
+        <v>627</v>
+      </c>
+      <c r="E249" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="H249" s="5" t="s">
         <v>637</v>
-      </c>
-      <c r="D249" s="24" t="s">
-        <v>628</v>
-      </c>
-      <c r="E249" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="H249" s="5" t="s">
-        <v>638</v>
       </c>
       <c r="I249" s="5" t="b">
         <v>0</v>
@@ -12854,27 +12854,27 @@
         <v>111</v>
       </c>
       <c r="M249" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N249" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="250" spans="1:14" s="13" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A250" s="13" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B250" s="13" t="s">
         <v>56</v>
       </c>
       <c r="C250" s="13" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D250" s="25" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E250" s="21" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F250" s="39">
         <v>45792</v>
@@ -12883,7 +12883,7 @@
         <v>45909</v>
       </c>
       <c r="H250" s="13" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="I250" s="13" t="b">
         <v>0</v>
@@ -12898,27 +12898,27 @@
         <v>111</v>
       </c>
       <c r="M250" s="14" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N250" s="13" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="251" spans="1:14" s="13" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A251" s="13" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B251" s="13" t="s">
         <v>56</v>
       </c>
       <c r="C251" s="13" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D251" s="25" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E251" s="21" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F251" s="39">
         <v>45792</v>
@@ -12927,7 +12927,7 @@
         <v>45909</v>
       </c>
       <c r="H251" s="13" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="I251" s="13" t="b">
         <v>0</v>
@@ -12942,27 +12942,27 @@
         <v>111</v>
       </c>
       <c r="M251" s="14" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N251" s="13" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="252" spans="1:14" s="13" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A252" s="13" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B252" s="13" t="s">
         <v>56</v>
       </c>
       <c r="C252" s="13" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D252" s="25" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E252" s="21" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F252" s="39">
         <v>45792</v>
@@ -12971,7 +12971,7 @@
         <v>45909</v>
       </c>
       <c r="H252" s="13" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="I252" s="13" t="b">
         <v>0</v>
@@ -12986,27 +12986,27 @@
         <v>111</v>
       </c>
       <c r="M252" s="14" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N252" s="13" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="253" spans="1:14" s="13" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A253" s="13" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B253" s="13" t="s">
         <v>56</v>
       </c>
       <c r="C253" s="13" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D253" s="25" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E253" s="21" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F253" s="39">
         <v>45792</v>
@@ -13015,7 +13015,7 @@
         <v>45909</v>
       </c>
       <c r="H253" s="13" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="I253" s="13" t="b">
         <v>0</v>
@@ -13030,100 +13030,100 @@
         <v>111</v>
       </c>
       <c r="M253" s="14" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N253" s="13" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="254" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A254" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="B254" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C254" t="s">
+        <v>643</v>
+      </c>
+      <c r="D254" s="23" t="s">
         <v>640</v>
       </c>
-      <c r="B254" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C254" t="s">
-        <v>644</v>
-      </c>
-      <c r="D254" s="23" t="s">
+      <c r="E254" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="H254" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="I254" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J254" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L254" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="M254" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="N254" s="5" t="s">
         <v>641</v>
-      </c>
-      <c r="E254" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="H254" s="5" t="s">
-        <v>643</v>
-      </c>
-      <c r="I254" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J254" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L254" s="4" t="s">
-        <v>577</v>
-      </c>
-      <c r="M254" s="4" t="s">
-        <v>704</v>
-      </c>
-      <c r="N254" s="5" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="255" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A255" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B255" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D255" s="23" t="s">
+        <v>640</v>
+      </c>
+      <c r="E255" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="H255" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="I255" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J255" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L255" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="M255" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="N255" s="5" t="s">
         <v>641</v>
-      </c>
-      <c r="E255" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="H255" s="5" t="s">
-        <v>643</v>
-      </c>
-      <c r="I255" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J255" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L255" s="4" t="s">
-        <v>577</v>
-      </c>
-      <c r="M255" s="4" t="s">
-        <v>704</v>
-      </c>
-      <c r="N255" s="5" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="256" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A256" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="B256" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C256" s="5" t="s">
         <v>646</v>
       </c>
-      <c r="B256" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C256" s="5" t="s">
-        <v>647</v>
-      </c>
       <c r="D256" s="23" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E256" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H256" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I256" s="5" t="b">
         <v>0</v>
@@ -13132,33 +13132,33 @@
         <v>0</v>
       </c>
       <c r="L256" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="M256" s="4" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="N256" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="257" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A257" s="5" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B257" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D257" s="23" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E257" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H257" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I257" s="5" t="b">
         <v>0</v>
@@ -13167,33 +13167,33 @@
         <v>0</v>
       </c>
       <c r="L257" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="M257" s="4" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="N257" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="258" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A258" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="B258" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C258" s="5" t="s">
         <v>649</v>
       </c>
-      <c r="B258" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C258" s="5" t="s">
-        <v>650</v>
-      </c>
       <c r="D258" s="23" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E258" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H258" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I258" s="5" t="b">
         <v>0</v>
@@ -13202,33 +13202,33 @@
         <v>0</v>
       </c>
       <c r="L258" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="M258" s="4" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="N258" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="259" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A259" s="5" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B259" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D259" s="23" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E259" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H259" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I259" s="5" t="b">
         <v>0</v>
@@ -13237,33 +13237,33 @@
         <v>0</v>
       </c>
       <c r="L259" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="M259" s="4" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="N259" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="260" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A260" s="5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B260" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D260" s="23" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E260" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H260" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="I260" s="5" t="b">
         <v>0</v>
@@ -13272,33 +13272,33 @@
         <v>0</v>
       </c>
       <c r="L260" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="M260" s="4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="N260" s="5" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="261" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A261" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B261" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D261" s="23" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E261" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H261" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="I261" s="5" t="b">
         <v>0</v>
@@ -13307,33 +13307,33 @@
         <v>0</v>
       </c>
       <c r="L261" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="M261" s="4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="N261" s="5" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="262" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A262" s="5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B262" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D262" s="23" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E262" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H262" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="I262" s="5" t="b">
         <v>0</v>
@@ -13342,33 +13342,33 @@
         <v>0</v>
       </c>
       <c r="L262" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="M262" s="4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="N262" s="5" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="263" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A263" s="5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B263" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D263" s="23" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E263" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H263" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="I263" s="5" t="b">
         <v>0</v>
@@ -13377,33 +13377,33 @@
         <v>0</v>
       </c>
       <c r="L263" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="M263" s="4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="N263" s="5" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="264" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A264" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B264" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D264" s="23" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E264" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H264" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="I264" s="5" t="b">
         <v>0</v>
@@ -13412,33 +13412,33 @@
         <v>0</v>
       </c>
       <c r="L264" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="M264" s="4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="N264" s="5" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="265" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A265" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B265" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D265" s="23" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E265" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H265" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="I265" s="5" t="b">
         <v>0</v>
@@ -13447,33 +13447,33 @@
         <v>0</v>
       </c>
       <c r="L265" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="M265" s="4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="N265" s="5" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="266" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A266" s="5" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B266" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D266" s="23" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E266" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H266" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="I266" s="5" t="b">
         <v>0</v>
@@ -13482,33 +13482,33 @@
         <v>0</v>
       </c>
       <c r="L266" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="M266" s="4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="N266" s="5" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="267" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A267" s="5" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B267" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D267" s="23" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E267" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H267" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="I267" s="5" t="b">
         <v>0</v>
@@ -13517,34 +13517,34 @@
         <v>0</v>
       </c>
       <c r="L267" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="M267" s="4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="N267" s="5" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="268" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A268" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="B268" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C268" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="D268" s="23" t="s">
+        <v>640</v>
+      </c>
+      <c r="E268" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="H268" s="5" t="s">
         <v>676</v>
       </c>
-      <c r="B268" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C268" s="5" t="s">
-        <v>667</v>
-      </c>
-      <c r="D268" s="23" t="s">
-        <v>641</v>
-      </c>
-      <c r="E268" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="H268" s="5" t="s">
-        <v>677</v>
-      </c>
       <c r="I268" s="5" t="b">
         <v>0</v>
       </c>
@@ -13552,33 +13552,33 @@
         <v>0</v>
       </c>
       <c r="L268" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="M268" s="4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="N268" s="5" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="269" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A269" s="5" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B269" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D269" s="23" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E269" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H269" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="I269" s="5" t="b">
         <v>0</v>
@@ -13594,30 +13594,30 @@
         <v>111</v>
       </c>
       <c r="M269" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N269" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="270" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A270" s="5" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B270" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C270" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="D270" s="23" t="s">
         <v>707</v>
       </c>
-      <c r="D270" s="23" t="s">
-        <v>708</v>
-      </c>
       <c r="E270" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H270" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="I270" s="5" t="b">
         <v>0</v>
@@ -13633,65 +13633,65 @@
         <v>111</v>
       </c>
       <c r="M270" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N270" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="271" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A271" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="B271" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C271" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="D271" s="23" t="s">
+        <v>707</v>
+      </c>
+      <c r="E271" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="H271" s="5" t="s">
         <v>711</v>
       </c>
-      <c r="B271" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C271" s="5" t="s">
+      <c r="I271" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J271" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L271" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="M271" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="N271" s="5" t="s">
         <v>709</v>
-      </c>
-      <c r="D271" s="23" t="s">
-        <v>708</v>
-      </c>
-      <c r="E271" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="H271" s="5" t="s">
-        <v>712</v>
-      </c>
-      <c r="I271" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J271" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L271" s="4" t="s">
-        <v>577</v>
-      </c>
-      <c r="M271" s="4" t="s">
-        <v>713</v>
-      </c>
-      <c r="N271" s="5" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="272" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A272" s="5" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B272" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D272" s="23" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E272" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H272" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="I272" s="5" t="b">
         <v>0</v>
@@ -13704,33 +13704,33 @@
         <v>1</v>
       </c>
       <c r="L272" s="4" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="M272" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N272" s="5" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="273" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A273" s="5" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B273" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C273" s="5" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D273" s="23" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E273" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H273" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="I273" s="5" t="b">
         <v>0</v>
@@ -13743,33 +13743,33 @@
         <v>1</v>
       </c>
       <c r="L273" s="4" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="M273" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N273" s="5" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="274" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A274" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B274" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C274" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D274" s="23" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E274" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H274" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="I274" s="5" t="b">
         <v>0</v>
@@ -13782,33 +13782,33 @@
         <v>1</v>
       </c>
       <c r="L274" s="4" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="M274" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N274" s="5" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="275" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A275" s="5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B275" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D275" s="23" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E275" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H275" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="I275" s="5" t="b">
         <v>0</v>
@@ -13821,33 +13821,33 @@
         <v>1</v>
       </c>
       <c r="L275" s="4" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="M275" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N275" s="5" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="276" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A276" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="B276" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C276" s="5" t="s">
         <v>723</v>
       </c>
-      <c r="B276" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C276" s="5" t="s">
-        <v>724</v>
-      </c>
       <c r="D276" s="23" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E276" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H276" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="I276" s="5" t="b">
         <v>0</v>
@@ -13860,33 +13860,33 @@
         <v>1</v>
       </c>
       <c r="L276" s="4" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="M276" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N276" s="5" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="277" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A277" s="5" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B277" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D277" s="23" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E277" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H277" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="I277" s="5" t="b">
         <v>0</v>
@@ -13899,33 +13899,33 @@
         <v>1</v>
       </c>
       <c r="L277" s="4" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="M277" s="4" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="N277" s="5" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="278" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A278" s="5" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B278" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D278" s="24" t="s">
+        <v>736</v>
+      </c>
+      <c r="E278" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="H278" s="5" t="s">
         <v>737</v>
-      </c>
-      <c r="E278" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="H278" s="5" t="s">
-        <v>738</v>
       </c>
       <c r="I278" s="5" t="b">
         <v>0</v>
@@ -13938,33 +13938,33 @@
         <v>1</v>
       </c>
       <c r="L278" s="4" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="M278" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N278" s="5" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="279" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A279" s="5" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B279" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C279" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="D279" s="24" t="s">
         <v>736</v>
       </c>
-      <c r="D279" s="24" t="s">
+      <c r="E279" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="H279" s="5" t="s">
         <v>737</v>
-      </c>
-      <c r="E279" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="H279" s="5" t="s">
-        <v>738</v>
       </c>
       <c r="I279" s="5" t="b">
         <v>0</v>
@@ -13977,33 +13977,33 @@
         <v>1</v>
       </c>
       <c r="L279" s="4" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="M279" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N279" s="5" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="280" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D280" s="24" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E280" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H280" s="5" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="I280" s="5" t="b">
         <v>0</v>
@@ -14019,30 +14019,30 @@
         <v>111</v>
       </c>
       <c r="M280" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N280" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="281" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D281" s="24" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E281" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H281" s="5" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="I281" s="5" t="b">
         <v>0</v>
@@ -14058,30 +14058,30 @@
         <v>111</v>
       </c>
       <c r="M281" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N281" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="282" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D282" s="24" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E282" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H282" s="5" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="I282" s="5" t="b">
         <v>0</v>
@@ -14097,30 +14097,30 @@
         <v>111</v>
       </c>
       <c r="M282" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N282" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="283" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C283" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="D283" s="24" t="s">
+        <v>736</v>
+      </c>
+      <c r="E283" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="H283" s="5" t="s">
         <v>746</v>
-      </c>
-      <c r="D283" s="24" t="s">
-        <v>737</v>
-      </c>
-      <c r="E283" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="H283" s="5" t="s">
-        <v>747</v>
       </c>
       <c r="I283" s="5" t="b">
         <v>0</v>
@@ -14136,30 +14136,30 @@
         <v>111</v>
       </c>
       <c r="M283" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N283" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="284" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D284" s="24" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E284" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H284" s="5" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="I284" s="5" t="b">
         <v>0</v>
@@ -14172,30 +14172,30 @@
         <v>111</v>
       </c>
       <c r="M284" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="N284" s="5" t="s">
         <v>822</v>
-      </c>
-      <c r="N284" s="5" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="285" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D285" s="24" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E285" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H285" s="5" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="I285" s="5" t="b">
         <v>0</v>
@@ -14208,30 +14208,30 @@
         <v>111</v>
       </c>
       <c r="M285" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="N285" s="5" t="s">
         <v>822</v>
-      </c>
-      <c r="N285" s="5" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="286" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A286" s="5" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B286" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C286" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="D286" s="24" t="s">
+        <v>736</v>
+      </c>
+      <c r="E286" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="H286" s="5" t="s">
         <v>776</v>
-      </c>
-      <c r="D286" s="24" t="s">
-        <v>737</v>
-      </c>
-      <c r="E286" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="H286" s="5" t="s">
-        <v>777</v>
       </c>
       <c r="I286" s="5" t="b">
         <v>0</v>
@@ -14241,33 +14241,33 @@
         <v>1</v>
       </c>
       <c r="L286" s="4" t="s">
+        <v>777</v>
+      </c>
+      <c r="M286" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="N286" s="5" t="s">
         <v>778</v>
-      </c>
-      <c r="M286" s="4" t="s">
-        <v>690</v>
-      </c>
-      <c r="N286" s="5" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="287" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A287" s="5" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B287" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D287" s="24" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E287" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H287" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="I287" s="5" t="b">
         <v>0</v>
@@ -14277,33 +14277,33 @@
         <v>1</v>
       </c>
       <c r="L287" s="4" t="s">
+        <v>777</v>
+      </c>
+      <c r="M287" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="N287" s="5" t="s">
         <v>778</v>
-      </c>
-      <c r="M287" s="4" t="s">
-        <v>691</v>
-      </c>
-      <c r="N287" s="5" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="288" spans="1:14" ht="64" x14ac:dyDescent="0.2">
       <c r="A288" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B288" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D288" s="24" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E288" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H288" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="I288" s="5" t="b">
         <v>0</v>
@@ -14313,33 +14313,33 @@
         <v>1</v>
       </c>
       <c r="L288" s="4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="M288" s="4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="N288" s="5" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="289" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A289" s="5" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B289" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D289" s="24" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E289" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H289" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="I289" s="5" t="b">
         <v>0</v>
@@ -14349,33 +14349,33 @@
         <v>1</v>
       </c>
       <c r="L289" s="4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="M289" s="4" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="N289" s="5" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="290" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A290" s="5" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B290" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D290" s="24" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E290" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H290" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="I290" s="5" t="b">
         <v>0</v>
@@ -14385,33 +14385,33 @@
         <v>1</v>
       </c>
       <c r="L290" s="4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="M290" s="4" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="N290" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="291" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A291" s="5" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B291" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D291" s="24" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E291" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H291" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="I291" s="5" t="b">
         <v>0</v>
@@ -14421,33 +14421,33 @@
         <v>1</v>
       </c>
       <c r="L291" s="4" t="s">
+        <v>777</v>
+      </c>
+      <c r="M291" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="N291" s="5" t="s">
         <v>778</v>
-      </c>
-      <c r="M291" s="4" t="s">
-        <v>690</v>
-      </c>
-      <c r="N291" s="5" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="292" spans="1:14" ht="64" x14ac:dyDescent="0.2">
       <c r="A292" s="5" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B292" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D292" s="24" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E292" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H292" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="I292" s="5" t="b">
         <v>0</v>
@@ -14457,33 +14457,33 @@
         <v>1</v>
       </c>
       <c r="L292" s="4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="M292" s="4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="N292" s="5" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="293" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A293" s="5" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B293" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D293" s="24" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E293" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H293" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="I293" s="5" t="b">
         <v>0</v>
@@ -14493,33 +14493,33 @@
         <v>1</v>
       </c>
       <c r="L293" s="4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="M293" s="4" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="N293" s="5" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="294" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A294" s="5" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B294" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C294" s="5" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D294" s="24" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E294" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H294" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="I294" s="5" t="b">
         <v>0</v>
@@ -14529,33 +14529,33 @@
         <v>1</v>
       </c>
       <c r="L294" s="4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="M294" s="4" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="N294" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="295" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A295" s="5" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B295" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C295" s="5" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D295" s="24" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E295" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H295" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="I295" s="5" t="b">
         <v>0</v>
@@ -14565,33 +14565,33 @@
         <v>1</v>
       </c>
       <c r="L295" s="4" t="s">
+        <v>777</v>
+      </c>
+      <c r="M295" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="N295" s="5" t="s">
         <v>778</v>
-      </c>
-      <c r="M295" s="4" t="s">
-        <v>690</v>
-      </c>
-      <c r="N295" s="5" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="296" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A296" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="B296" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C296" s="5" t="s">
         <v>800</v>
       </c>
-      <c r="B296" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C296" s="5" t="s">
-        <v>801</v>
-      </c>
       <c r="D296" s="24" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E296" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H296" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="I296" s="5" t="b">
         <v>0</v>
@@ -14601,33 +14601,33 @@
         <v>1</v>
       </c>
       <c r="L296" s="4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="M296" s="4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="N296" s="5" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="297" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A297" s="5" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B297" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D297" s="24" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E297" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H297" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="I297" s="5" t="b">
         <v>0</v>
@@ -14637,33 +14637,33 @@
         <v>1</v>
       </c>
       <c r="L297" s="4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="M297" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N297" s="5" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="298" spans="1:14" ht="64" x14ac:dyDescent="0.2">
       <c r="A298" s="5" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B298" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D298" s="24" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E298" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H298" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="I298" s="5" t="b">
         <v>0</v>
@@ -14673,33 +14673,33 @@
         <v>1</v>
       </c>
       <c r="L298" s="4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="M298" s="4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="N298" s="5" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="299" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A299" s="5" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B299" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D299" s="24" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E299" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H299" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="I299" s="5" t="b">
         <v>0</v>
@@ -14709,33 +14709,33 @@
         <v>1</v>
       </c>
       <c r="L299" s="4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="M299" s="4" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="N299" s="5" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="300" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A300" s="5" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B300" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D300" s="24" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E300" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H300" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="I300" s="5" t="b">
         <v>0</v>
@@ -14745,33 +14745,33 @@
         <v>1</v>
       </c>
       <c r="L300" s="4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="M300" s="4" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="N300" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="301" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A301" s="5" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B301" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D301" s="24" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E301" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H301" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="I301" s="5" t="b">
         <v>0</v>
@@ -14781,33 +14781,33 @@
         <v>1</v>
       </c>
       <c r="L301" s="4" t="s">
+        <v>777</v>
+      </c>
+      <c r="M301" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="N301" s="5" t="s">
         <v>778</v>
-      </c>
-      <c r="M301" s="4" t="s">
-        <v>690</v>
-      </c>
-      <c r="N301" s="5" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="302" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A302" s="5" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B302" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D302" s="24" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E302" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H302" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="I302" s="5" t="b">
         <v>0</v>
@@ -14817,34 +14817,34 @@
         <v>1</v>
       </c>
       <c r="L302" s="4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="M302" s="4" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="N302" s="5" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="303" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A303" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="B303" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C303" s="5" t="s">
         <v>826</v>
       </c>
-      <c r="B303" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C303" s="5" t="s">
+      <c r="D303" s="24" t="s">
+        <v>736</v>
+      </c>
+      <c r="E303" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="H303" s="5" t="s">
         <v>827</v>
       </c>
-      <c r="D303" s="24" t="s">
-        <v>737</v>
-      </c>
-      <c r="E303" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="H303" s="5" t="s">
-        <v>828</v>
-      </c>
       <c r="I303" s="5" t="b">
         <v>0</v>
       </c>
@@ -14852,33 +14852,33 @@
         <v>0</v>
       </c>
       <c r="L303" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="M303" s="4" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="N303" s="5" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="304" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A304" s="5" t="s">
+        <v>831</v>
+      </c>
+      <c r="B304" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C304" s="5" t="s">
         <v>832</v>
       </c>
-      <c r="B304" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C304" s="5" t="s">
+      <c r="D304" s="24" t="s">
+        <v>828</v>
+      </c>
+      <c r="E304" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="H304" s="5" t="s">
         <v>833</v>
-      </c>
-      <c r="D304" s="24" t="s">
-        <v>829</v>
-      </c>
-      <c r="E304" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="H304" s="5" t="s">
-        <v>834</v>
       </c>
       <c r="I304" s="5" t="b">
         <v>0</v>
@@ -14891,65 +14891,65 @@
         <v>423</v>
       </c>
       <c r="M304" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="N304" s="5" t="s">
         <v>835</v>
-      </c>
-      <c r="N304" s="5" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="305" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A305" s="5" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B305" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D305" s="24" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E305" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H305" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="I305" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J305" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L305" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="M305" s="4" t="s">
         <v>838</v>
       </c>
-      <c r="I305" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J305" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L305" s="4" t="s">
-        <v>577</v>
-      </c>
-      <c r="M305" s="4" t="s">
+      <c r="N305" s="5" t="s">
         <v>839</v>
-      </c>
-      <c r="N305" s="5" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="306" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C306" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D306" s="24" t="s">
         <v>846</v>
       </c>
-      <c r="D306" s="24" t="s">
+      <c r="E306" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="H306" s="5" t="s">
         <v>847</v>
-      </c>
-      <c r="E306" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="H306" s="5" t="s">
-        <v>848</v>
       </c>
       <c r="I306" s="5" t="b">
         <v>0</v>
@@ -14965,30 +14965,30 @@
         <v>111</v>
       </c>
       <c r="M306" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="N306" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="307" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
+        <v>843</v>
+      </c>
+      <c r="B307" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="C307" s="1" t="s">
         <v>844</v>
       </c>
-      <c r="B307" s="5" t="s">
-        <v>585</v>
-      </c>
-      <c r="C307" s="1" t="s">
-        <v>845</v>
-      </c>
       <c r="D307" s="24" t="s">
+        <v>846</v>
+      </c>
+      <c r="E307" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="H307" s="5" t="s">
         <v>847</v>
-      </c>
-      <c r="E307" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="H307" s="5" t="s">
-        <v>848</v>
       </c>
       <c r="I307" s="5" t="b">
         <v>0</v>
@@ -15004,10 +15004,10 @@
         <v>111</v>
       </c>
       <c r="M307" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="N307" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
   </sheetData>

--- a/work-in-progress/Peppol Code Lists - Document types v9.4.xlsx
+++ b/work-in-progress/Peppol Code Lists - Document types v9.4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/philip/dev/git-peppol/edec-codelists/work-in-progress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341D9C49-7178-084D-A323-1D4976898053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4F1651-CBA5-B44F-981E-2871674E2FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="23980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Document Type" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Document Type'!$A$1:$N$283</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Document Type'!$A$1:$N$307</definedName>
     <definedName name="_ftn1" localSheetId="0">'Document Type'!#REF!</definedName>
     <definedName name="_ftn2" localSheetId="0">'Document Type'!#REF!</definedName>
     <definedName name="_ftn3" localSheetId="0">'Document Type'!#REF!</definedName>
@@ -1728,35 +1728,8 @@
 Typo in Customization ID</t>
   </si>
   <si>
-    <t>Advanced Despatch Advice</t>
-  </si>
-  <si>
-    <t>Despatch Advice Response</t>
-  </si>
-  <si>
-    <t>Weight Statement</t>
-  </si>
-  <si>
     <t>TICC-215
 TICC-255</t>
-  </si>
-  <si>
-    <t>Peppol Transport Execution Plan Request</t>
-  </si>
-  <si>
-    <t>Peppol Transport Execution Plan</t>
-  </si>
-  <si>
-    <t>Peppol Waybill</t>
-  </si>
-  <si>
-    <t>Peppol Transportation Status Request</t>
-  </si>
-  <si>
-    <t>Peppol Transportation Status</t>
-  </si>
-  <si>
-    <t>Peppol Receipt Advice</t>
   </si>
   <si>
     <t>cenbii-procid-ubl::urn:fdc:peppol.eu:logistics:bis:transport_execution_plan_w_request:1</t>
@@ -2672,6 +2645,33 @@
   </si>
   <si>
     <t>Logistics</t>
+  </si>
+  <si>
+    <t>Peppol Advanced Despatch Advice V1</t>
+  </si>
+  <si>
+    <t>Peppol Despatch Advice Response V1</t>
+  </si>
+  <si>
+    <t>Peppol Weight Statement V1</t>
+  </si>
+  <si>
+    <t>Peppol Transport Execution Plan Request V1</t>
+  </si>
+  <si>
+    <t>Peppol Transport Execution Plan V1</t>
+  </si>
+  <si>
+    <t>Peppol Waybill V1</t>
+  </si>
+  <si>
+    <t>Peppol Transportation Status Request V1</t>
+  </si>
+  <si>
+    <t>Peppol Transportation Status V1</t>
+  </si>
+  <si>
+    <t>Peppol Receipt Advice V1</t>
   </si>
 </sst>
 </file>
@@ -3341,8 +3341,8 @@
   <dimension ref="A1:N307"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H215" sqref="H215"/>
+      <pane ySplit="1" topLeftCell="A183" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A195" sqref="A195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3381,7 +3381,7 @@
         <v>348</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
       <c r="G1" s="41" t="s">
         <v>398</v>
@@ -3390,7 +3390,7 @@
         <v>107</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>428</v>
@@ -3402,7 +3402,7 @@
         <v>109</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>152</v>
@@ -3442,7 +3442,7 @@
         <v>110</v>
       </c>
       <c r="M2" s="27" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="N2" s="31" t="s">
         <v>138</v>
@@ -3482,7 +3482,7 @@
         <v>110</v>
       </c>
       <c r="M3" s="27" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="N3" s="31" t="s">
         <v>138</v>
@@ -3522,7 +3522,7 @@
         <v>110</v>
       </c>
       <c r="M4" s="27" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="N4" s="31" t="s">
         <v>138</v>
@@ -3562,7 +3562,7 @@
         <v>111</v>
       </c>
       <c r="M5" s="27" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="N5" s="31" t="s">
         <v>139</v>
@@ -3602,7 +3602,7 @@
         <v>111</v>
       </c>
       <c r="M6" s="27" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="N6" s="31" t="s">
         <v>140</v>
@@ -3642,7 +3642,7 @@
         <v>111</v>
       </c>
       <c r="M7" s="27" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="N7" s="31" t="s">
         <v>139</v>
@@ -3682,7 +3682,7 @@
         <v>111</v>
       </c>
       <c r="M8" s="27" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="N8" s="31" t="s">
         <v>141</v>
@@ -3722,7 +3722,7 @@
         <v>111</v>
       </c>
       <c r="M9" s="27" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="N9" s="31" t="s">
         <v>142</v>
@@ -3765,7 +3765,7 @@
         <v>111</v>
       </c>
       <c r="M10" s="27" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="N10" s="31" t="s">
         <v>143</v>
@@ -3805,7 +3805,7 @@
         <v>111</v>
       </c>
       <c r="M11" s="27" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="N11" s="31" t="s">
         <v>143</v>
@@ -3845,7 +3845,7 @@
         <v>111</v>
       </c>
       <c r="M12" s="27" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N12" s="31" t="s">
         <v>144</v>
@@ -3885,7 +3885,7 @@
         <v>111</v>
       </c>
       <c r="M13" s="27" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N13" s="31" t="s">
         <v>145</v>
@@ -3925,7 +3925,7 @@
         <v>111</v>
       </c>
       <c r="M14" s="27" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N14" s="31" t="s">
         <v>146</v>
@@ -3933,7 +3933,7 @@
     </row>
     <row r="15" spans="1:14" s="31" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="B15" s="27" t="s">
         <v>56</v>
@@ -3965,7 +3965,7 @@
         <v>111</v>
       </c>
       <c r="M15" s="27" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="N15" s="31" t="s">
         <v>146</v>
@@ -4005,7 +4005,7 @@
         <v>111</v>
       </c>
       <c r="M16" s="27" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N16" s="31" t="s">
         <v>146</v>
@@ -4045,7 +4045,7 @@
         <v>111</v>
       </c>
       <c r="M17" s="27" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N17" s="31" t="s">
         <v>147</v>
@@ -4053,7 +4053,7 @@
     </row>
     <row r="18" spans="1:14" s="31" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="27" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c r="B18" s="27" t="s">
         <v>56</v>
@@ -4085,7 +4085,7 @@
         <v>111</v>
       </c>
       <c r="M18" s="27" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="N18" s="31" t="s">
         <v>147</v>
@@ -4125,7 +4125,7 @@
         <v>111</v>
       </c>
       <c r="M19" s="27" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="N19" s="31" t="s">
         <v>148</v>
@@ -4165,7 +4165,7 @@
         <v>111</v>
       </c>
       <c r="M20" s="27" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="N20" s="31" t="s">
         <v>148</v>
@@ -4205,7 +4205,7 @@
         <v>111</v>
       </c>
       <c r="M21" s="27" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="N21" s="31" t="s">
         <v>148</v>
@@ -4245,7 +4245,7 @@
         <v>111</v>
       </c>
       <c r="M22" s="27" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N22" s="31" t="s">
         <v>148</v>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="23" spans="1:14" s="31" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="31" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="B23" s="27" t="s">
         <v>56</v>
@@ -4285,7 +4285,7 @@
         <v>111</v>
       </c>
       <c r="M23" s="27" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="N23" s="31" t="s">
         <v>148</v>
@@ -4325,7 +4325,7 @@
         <v>111</v>
       </c>
       <c r="M24" s="27" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N24" s="31" t="s">
         <v>148</v>
@@ -4363,7 +4363,7 @@
         <v>111</v>
       </c>
       <c r="M25" s="27" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N25" s="31" t="s">
         <v>144</v>
@@ -4396,7 +4396,7 @@
         <v>111</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="N26" s="5" t="s">
         <v>147</v>
@@ -4436,7 +4436,7 @@
         <v>111</v>
       </c>
       <c r="M27" s="27" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="N27" s="31" t="s">
         <v>149</v>
@@ -4479,7 +4479,7 @@
         <v>111</v>
       </c>
       <c r="M28" s="27" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="N28" s="31" t="s">
         <v>149</v>
@@ -4519,7 +4519,7 @@
         <v>111</v>
       </c>
       <c r="M29" s="27" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="N29" s="31" t="s">
         <v>149</v>
@@ -4559,7 +4559,7 @@
         <v>111</v>
       </c>
       <c r="M30" s="27" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="N30" s="31" t="s">
         <v>150</v>
@@ -4599,7 +4599,7 @@
         <v>111</v>
       </c>
       <c r="M31" s="27" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="N31" s="31" t="s">
         <v>151</v>
@@ -4622,7 +4622,7 @@
         <v>350</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="I32" s="5" t="b">
         <v>0</v>
@@ -4638,15 +4638,15 @@
         <v>111</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>56</v>
@@ -4661,7 +4661,7 @@
         <v>350</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="I33" s="5" t="b">
         <v>0</v>
@@ -4677,10 +4677,10 @@
         <v>111</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="48" x14ac:dyDescent="0.2">
@@ -4710,7 +4710,7 @@
         <v>111</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="N34" s="5" t="s">
         <v>149</v>
@@ -4751,7 +4751,7 @@
         <v>111</v>
       </c>
       <c r="M35" s="27" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="N35" s="31" t="s">
         <v>149</v>
@@ -4787,7 +4787,7 @@
         <v>111</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="N36" s="5" t="s">
         <v>149</v>
@@ -4823,7 +4823,7 @@
         <v>111</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N37" s="7" t="s">
         <v>123</v>
@@ -4866,7 +4866,7 @@
         <v>110</v>
       </c>
       <c r="M38" s="27" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="N38" s="31" t="s">
         <v>137</v>
@@ -4909,7 +4909,7 @@
         <v>110</v>
       </c>
       <c r="M39" s="27" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="N39" s="31" t="s">
         <v>137</v>
@@ -4952,7 +4952,7 @@
         <v>110</v>
       </c>
       <c r="M40" s="27" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="N40" s="31" t="s">
         <v>136</v>
@@ -4995,7 +4995,7 @@
         <v>110</v>
       </c>
       <c r="M41" s="27" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="N41" s="31" t="s">
         <v>136</v>
@@ -5038,7 +5038,7 @@
         <v>110</v>
       </c>
       <c r="M42" s="27" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="N42" s="31" t="s">
         <v>135</v>
@@ -5081,7 +5081,7 @@
         <v>110</v>
       </c>
       <c r="M43" s="27" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="N43" s="31" t="s">
         <v>135</v>
@@ -5124,7 +5124,7 @@
         <v>111</v>
       </c>
       <c r="M44" s="14" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N44" s="16" t="s">
         <v>123</v>
@@ -5132,7 +5132,7 @@
     </row>
     <row r="45" spans="1:14" s="13" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
       <c r="B45" s="14" t="s">
         <v>56</v>
@@ -5167,7 +5167,7 @@
         <v>111</v>
       </c>
       <c r="M45" s="14" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="N45" s="16" t="s">
         <v>123</v>
@@ -5210,7 +5210,7 @@
         <v>111</v>
       </c>
       <c r="M46" s="14" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N46" s="16" t="s">
         <v>123</v>
@@ -5233,13 +5233,13 @@
         <v>349</v>
       </c>
       <c r="F47" s="33" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="G47" s="42">
         <v>46025</v>
       </c>
       <c r="H47" s="31" t="s">
-        <v>849</v>
+        <v>840</v>
       </c>
       <c r="I47" s="31" t="b">
         <v>0</v>
@@ -5250,10 +5250,10 @@
       </c>
       <c r="K47" s="29"/>
       <c r="L47" s="27" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="M47" s="27" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="N47" s="31" t="s">
         <v>121</v>
@@ -5276,13 +5276,13 @@
         <v>349</v>
       </c>
       <c r="F48" s="33" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="G48" s="42">
         <v>46025</v>
       </c>
       <c r="H48" s="31" t="s">
-        <v>849</v>
+        <v>840</v>
       </c>
       <c r="I48" s="31" t="b">
         <v>0</v>
@@ -5293,10 +5293,10 @@
       </c>
       <c r="K48" s="29"/>
       <c r="L48" s="27" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="M48" s="27" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="N48" s="31" t="s">
         <v>122</v>
@@ -5332,7 +5332,7 @@
         <v>111</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N49" s="7" t="s">
         <v>123</v>
@@ -5368,7 +5368,7 @@
         <v>111</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="N50" s="7" t="s">
         <v>123</v>
@@ -5408,7 +5408,7 @@
         <v>111</v>
       </c>
       <c r="M51" s="27" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="N51" s="31" t="s">
         <v>124</v>
@@ -5444,7 +5444,7 @@
         <v>111</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="N52" s="5" t="s">
         <v>125</v>
@@ -5480,7 +5480,7 @@
         <v>111</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="N53" s="7" t="s">
         <v>126</v>
@@ -5519,7 +5519,7 @@
         <v>111</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="N54" s="5" t="s">
         <v>477</v>
@@ -5542,7 +5542,7 @@
         <v>350</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="I55" s="5" t="b">
         <v>0</v>
@@ -5558,10 +5558,10 @@
         <v>111</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="N55" s="5" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="16" x14ac:dyDescent="0.2">
@@ -5594,7 +5594,7 @@
         <v>111</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="N56" s="7" t="s">
         <v>127</v>
@@ -5630,7 +5630,7 @@
         <v>111</v>
       </c>
       <c r="M57" s="4" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="N57" s="7" t="s">
         <v>128</v>
@@ -5666,7 +5666,7 @@
         <v>111</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="N58" s="7" t="s">
         <v>129</v>
@@ -5702,7 +5702,7 @@
         <v>111</v>
       </c>
       <c r="M59" s="4" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="N59" s="7" t="s">
         <v>130</v>
@@ -5738,7 +5738,7 @@
         <v>111</v>
       </c>
       <c r="M60" s="4" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="N60" s="7" t="s">
         <v>131</v>
@@ -5771,7 +5771,7 @@
         <v>111</v>
       </c>
       <c r="M61" s="4" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N61" s="7" t="s">
         <v>123</v>
@@ -5779,7 +5779,7 @@
     </row>
     <row r="62" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>56</v>
@@ -5804,7 +5804,7 @@
         <v>111</v>
       </c>
       <c r="M62" s="4" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="N62" s="7" t="s">
         <v>123</v>
@@ -5840,7 +5840,7 @@
         <v>111</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N63" s="7" t="s">
         <v>123</v>
@@ -5883,7 +5883,7 @@
         <v>111</v>
       </c>
       <c r="M64" s="27" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="N64" s="34" t="s">
         <v>123</v>
@@ -5922,7 +5922,7 @@
         <v>111</v>
       </c>
       <c r="M65" s="4" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="N65" s="7" t="s">
         <v>123</v>
@@ -5965,7 +5965,7 @@
         <v>111</v>
       </c>
       <c r="M66" s="14" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N66" s="16" t="s">
         <v>123</v>
@@ -5973,7 +5973,7 @@
     </row>
     <row r="67" spans="1:14" s="13" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A67" s="13" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="B67" s="14" t="s">
         <v>56</v>
@@ -6008,7 +6008,7 @@
         <v>111</v>
       </c>
       <c r="M67" s="14" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="N67" s="16" t="s">
         <v>123</v>
@@ -6051,7 +6051,7 @@
         <v>111</v>
       </c>
       <c r="M68" s="14" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N68" s="16" t="s">
         <v>123</v>
@@ -6087,7 +6087,7 @@
         <v>111</v>
       </c>
       <c r="M69" s="4" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="N69" s="7" t="s">
         <v>132</v>
@@ -6123,7 +6123,7 @@
         <v>111</v>
       </c>
       <c r="M70" s="4" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="N70" s="7" t="s">
         <v>133</v>
@@ -6159,7 +6159,7 @@
         <v>111</v>
       </c>
       <c r="M71" s="4" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="N71" s="7" t="s">
         <v>134</v>
@@ -6182,11 +6182,11 @@
         <v>349</v>
       </c>
       <c r="F72" s="35" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
       <c r="G72" s="45"/>
       <c r="H72" s="31" t="s">
-        <v>829</v>
+        <v>820</v>
       </c>
       <c r="I72" s="31" t="b">
         <v>0</v>
@@ -6202,7 +6202,7 @@
         <v>111</v>
       </c>
       <c r="M72" s="27" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N72" s="31" t="s">
         <v>123</v>
@@ -6210,7 +6210,7 @@
     </row>
     <row r="73" spans="1:14" s="31" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A73" s="31" t="s">
-        <v>755</v>
+        <v>746</v>
       </c>
       <c r="B73" s="27" t="s">
         <v>56</v>
@@ -6225,11 +6225,11 @@
         <v>349</v>
       </c>
       <c r="F73" s="35" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
       <c r="G73" s="45"/>
       <c r="H73" s="31" t="s">
-        <v>829</v>
+        <v>820</v>
       </c>
       <c r="I73" s="31" t="b">
         <v>0</v>
@@ -6245,7 +6245,7 @@
         <v>111</v>
       </c>
       <c r="M73" s="27" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="N73" s="31" t="s">
         <v>123</v>
@@ -6268,11 +6268,11 @@
         <v>349</v>
       </c>
       <c r="F74" s="35" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
       <c r="G74" s="45"/>
       <c r="H74" s="31" t="s">
-        <v>830</v>
+        <v>821</v>
       </c>
       <c r="I74" s="31" t="b">
         <v>0</v>
@@ -6286,7 +6286,7 @@
         <v>111</v>
       </c>
       <c r="M74" s="27" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N74" s="31" t="s">
         <v>233</v>
@@ -6294,7 +6294,7 @@
     </row>
     <row r="75" spans="1:14" s="31" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A75" s="31" t="s">
-        <v>756</v>
+        <v>747</v>
       </c>
       <c r="B75" s="27" t="s">
         <v>56</v>
@@ -6309,11 +6309,11 @@
         <v>349</v>
       </c>
       <c r="F75" s="35" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
       <c r="G75" s="45"/>
       <c r="H75" s="31" t="s">
-        <v>830</v>
+        <v>821</v>
       </c>
       <c r="I75" s="31" t="b">
         <v>0</v>
@@ -6327,7 +6327,7 @@
         <v>111</v>
       </c>
       <c r="M75" s="27" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="N75" s="31" t="s">
         <v>233</v>
@@ -6350,13 +6350,13 @@
         <v>478</v>
       </c>
       <c r="F76" s="17" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="G76" s="44">
         <v>45292</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="I76" s="13" t="b">
         <v>0</v>
@@ -6370,7 +6370,7 @@
         <v>111</v>
       </c>
       <c r="M76" s="14" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N76" s="16" t="s">
         <v>144</v>
@@ -6393,13 +6393,13 @@
         <v>478</v>
       </c>
       <c r="F77" s="17" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="G77" s="44">
         <v>45292</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="I77" s="13" t="b">
         <v>0</v>
@@ -6413,7 +6413,7 @@
         <v>111</v>
       </c>
       <c r="M77" s="14" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="N77" s="16" t="s">
         <v>143</v>
@@ -6456,7 +6456,7 @@
         <v>111</v>
       </c>
       <c r="M78" s="14" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N78" s="16" t="s">
         <v>123</v>
@@ -6464,7 +6464,7 @@
     </row>
     <row r="79" spans="1:14" s="13" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A79" s="13" t="s">
-        <v>757</v>
+        <v>748</v>
       </c>
       <c r="B79" s="14" t="s">
         <v>56</v>
@@ -6499,7 +6499,7 @@
         <v>111</v>
       </c>
       <c r="M79" s="14" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="N79" s="16" t="s">
         <v>123</v>
@@ -6542,7 +6542,7 @@
         <v>111</v>
       </c>
       <c r="M80" s="14" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N80" s="16" t="s">
         <v>123</v>
@@ -6578,7 +6578,7 @@
         <v>111</v>
       </c>
       <c r="M81" s="4" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N81" s="7" t="s">
         <v>123</v>
@@ -6586,7 +6586,7 @@
     </row>
     <row r="82" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>56</v>
@@ -6614,7 +6614,7 @@
         <v>111</v>
       </c>
       <c r="M82" s="4" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="N82" s="7" t="s">
         <v>123</v>
@@ -6657,7 +6657,7 @@
         <v>111</v>
       </c>
       <c r="M83" s="14" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N83" s="16" t="s">
         <v>123</v>
@@ -6693,7 +6693,7 @@
         <v>111</v>
       </c>
       <c r="M84" s="4" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N84" s="7" t="s">
         <v>123</v>
@@ -6736,7 +6736,7 @@
         <v>111</v>
       </c>
       <c r="M85" s="14" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N85" s="16" t="s">
         <v>123</v>
@@ -6744,7 +6744,7 @@
     </row>
     <row r="86" spans="1:14" s="13" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A86" s="13" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="B86" s="14" t="s">
         <v>56</v>
@@ -6779,7 +6779,7 @@
         <v>111</v>
       </c>
       <c r="M86" s="14" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="N86" s="16" t="s">
         <v>123</v>
@@ -6822,7 +6822,7 @@
         <v>111</v>
       </c>
       <c r="M87" s="14" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N87" s="16" t="s">
         <v>123</v>
@@ -6858,7 +6858,7 @@
         <v>111</v>
       </c>
       <c r="M88" s="4" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N88" s="7" t="s">
         <v>123</v>
@@ -6899,7 +6899,7 @@
         <v>111</v>
       </c>
       <c r="M89" s="27" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="N89" s="31" t="s">
         <v>177</v>
@@ -6940,7 +6940,7 @@
         <v>111</v>
       </c>
       <c r="M90" s="27" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="N90" s="31" t="s">
         <v>177</v>
@@ -6981,7 +6981,7 @@
         <v>111</v>
       </c>
       <c r="M91" s="27" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="N91" s="31" t="s">
         <v>177</v>
@@ -7022,7 +7022,7 @@
         <v>111</v>
       </c>
       <c r="M92" s="27" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="N92" s="31" t="s">
         <v>177</v>
@@ -7058,7 +7058,7 @@
         <v>111</v>
       </c>
       <c r="M93" s="4" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N93" s="5" t="s">
         <v>189</v>
@@ -7066,7 +7066,7 @@
     </row>
     <row r="94" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>56</v>
@@ -7094,7 +7094,7 @@
         <v>111</v>
       </c>
       <c r="M94" s="4" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="N94" s="5" t="s">
         <v>189</v>
@@ -7130,7 +7130,7 @@
         <v>111</v>
       </c>
       <c r="M95" s="4" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N95" s="5" t="s">
         <v>189</v>
@@ -7166,7 +7166,7 @@
         <v>111</v>
       </c>
       <c r="M96" s="4" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N96" s="7" t="s">
         <v>123</v>
@@ -7174,7 +7174,7 @@
     </row>
     <row r="97" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>56</v>
@@ -7202,7 +7202,7 @@
         <v>111</v>
       </c>
       <c r="M97" s="4" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="N97" s="7" t="s">
         <v>123</v>
@@ -7245,7 +7245,7 @@
         <v>111</v>
       </c>
       <c r="M98" s="14" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N98" s="16" t="s">
         <v>123</v>
@@ -7281,7 +7281,7 @@
         <v>111</v>
       </c>
       <c r="M99" s="4" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N99" s="7" t="s">
         <v>123</v>
@@ -7317,7 +7317,7 @@
         <v>111</v>
       </c>
       <c r="M100" s="4" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="N100" s="5" t="s">
         <v>234</v>
@@ -7353,7 +7353,7 @@
         <v>111</v>
       </c>
       <c r="M101" s="4" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="N101" s="7" t="s">
         <v>128</v>
@@ -7389,7 +7389,7 @@
         <v>111</v>
       </c>
       <c r="M102" s="4" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="N102" s="10" t="s">
         <v>212</v>
@@ -7412,13 +7412,13 @@
         <v>478</v>
       </c>
       <c r="F103" s="17" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="G103" s="44">
         <v>45473</v>
       </c>
       <c r="H103" s="13" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="I103" s="13" t="b">
         <v>0</v>
@@ -7430,7 +7430,7 @@
       <c r="K103" s="21"/>
       <c r="L103" s="14"/>
       <c r="M103" s="14" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="N103" s="16" t="s">
         <v>216</v>
@@ -7466,7 +7466,7 @@
         <v>111</v>
       </c>
       <c r="M104" s="4" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="N104" s="5" t="s">
         <v>407</v>
@@ -7502,7 +7502,7 @@
         <v>111</v>
       </c>
       <c r="M105" s="4" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="N105" s="5" t="s">
         <v>177</v>
@@ -7538,7 +7538,7 @@
         <v>111</v>
       </c>
       <c r="M106" s="4" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="N106" s="5" t="s">
         <v>177</v>
@@ -7574,7 +7574,7 @@
         <v>111</v>
       </c>
       <c r="M107" s="4" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="N107" s="5" t="s">
         <v>407</v>
@@ -7610,7 +7610,7 @@
         <v>347</v>
       </c>
       <c r="M108" s="40" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="N108" s="5" t="s">
         <v>403</v>
@@ -7646,7 +7646,7 @@
         <v>347</v>
       </c>
       <c r="M109" s="40" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="N109" s="5" t="s">
         <v>405</v>
@@ -7682,7 +7682,7 @@
         <v>347</v>
       </c>
       <c r="M110" s="40" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="N110" s="5" t="s">
         <v>405</v>
@@ -7718,7 +7718,7 @@
         <v>347</v>
       </c>
       <c r="M111" s="40" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="N111" s="5" t="s">
         <v>403</v>
@@ -7754,7 +7754,7 @@
         <v>347</v>
       </c>
       <c r="M112" s="40" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="N112" s="5" t="s">
         <v>406</v>
@@ -7790,7 +7790,7 @@
         <v>347</v>
       </c>
       <c r="M113" s="40" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="N113" s="5" t="s">
         <v>403</v>
@@ -7826,7 +7826,7 @@
         <v>347</v>
       </c>
       <c r="M114" s="40" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="N114" s="5" t="s">
         <v>403</v>
@@ -7862,7 +7862,7 @@
         <v>347</v>
       </c>
       <c r="M115" s="40" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="N115" s="5" t="s">
         <v>405</v>
@@ -7898,7 +7898,7 @@
         <v>347</v>
       </c>
       <c r="M116" s="40" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="N116" s="5" t="s">
         <v>406</v>
@@ -7934,7 +7934,7 @@
         <v>347</v>
       </c>
       <c r="M117" s="40" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="N117" s="5" t="s">
         <v>404</v>
@@ -7970,7 +7970,7 @@
         <v>347</v>
       </c>
       <c r="M118" s="40" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="N118" s="5" t="s">
         <v>404</v>
@@ -8006,7 +8006,7 @@
         <v>347</v>
       </c>
       <c r="M119" s="40" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="N119" s="5" t="s">
         <v>404</v>
@@ -8042,7 +8042,7 @@
         <v>347</v>
       </c>
       <c r="M120" s="40" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="N120" s="5" t="s">
         <v>404</v>
@@ -8078,7 +8078,7 @@
         <v>347</v>
       </c>
       <c r="M121" s="40" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="N121" s="5" t="s">
         <v>404</v>
@@ -8114,7 +8114,7 @@
         <v>347</v>
       </c>
       <c r="M122" s="40" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="N122" s="5" t="s">
         <v>404</v>
@@ -8150,7 +8150,7 @@
         <v>347</v>
       </c>
       <c r="M123" s="40" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="N123" s="5" t="s">
         <v>282</v>
@@ -8186,7 +8186,7 @@
         <v>347</v>
       </c>
       <c r="M124" s="40" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="N124" s="5" t="s">
         <v>283</v>
@@ -8222,7 +8222,7 @@
         <v>347</v>
       </c>
       <c r="M125" s="40" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="N125" s="5" t="s">
         <v>283</v>
@@ -8258,7 +8258,7 @@
         <v>347</v>
       </c>
       <c r="M126" s="40" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="N126" s="5" t="s">
         <v>283</v>
@@ -8294,7 +8294,7 @@
         <v>347</v>
       </c>
       <c r="M127" s="40" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="N127" s="5" t="s">
         <v>284</v>
@@ -8330,7 +8330,7 @@
         <v>347</v>
       </c>
       <c r="M128" s="40" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="N128" s="5" t="s">
         <v>284</v>
@@ -8366,7 +8366,7 @@
         <v>347</v>
       </c>
       <c r="M129" s="40" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="N129" s="5" t="s">
         <v>284</v>
@@ -8404,7 +8404,7 @@
         <v>110</v>
       </c>
       <c r="M130" s="4" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="N130" s="5" t="s">
         <v>288</v>
@@ -8442,7 +8442,7 @@
         <v>110</v>
       </c>
       <c r="M131" s="4" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="N131" s="5" t="s">
         <v>288</v>
@@ -8480,7 +8480,7 @@
         <v>110</v>
       </c>
       <c r="M132" s="4" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="N132" s="5" t="s">
         <v>289</v>
@@ -8518,7 +8518,7 @@
         <v>110</v>
       </c>
       <c r="M133" s="4" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="N133" s="5" t="s">
         <v>289</v>
@@ -8553,7 +8553,7 @@
         <v>111</v>
       </c>
       <c r="M134" s="4" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="N134" s="5" t="s">
         <v>141</v>
@@ -8588,7 +8588,7 @@
         <v>111</v>
       </c>
       <c r="M135" s="4" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="N135" s="5" t="s">
         <v>141</v>
@@ -8623,7 +8623,7 @@
         <v>111</v>
       </c>
       <c r="M136" s="4" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="N136" s="5" t="s">
         <v>149</v>
@@ -8658,7 +8658,7 @@
         <v>111</v>
       </c>
       <c r="M137" s="4" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="N137" s="5" t="s">
         <v>149</v>
@@ -8693,7 +8693,7 @@
         <v>111</v>
       </c>
       <c r="M138" s="4" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="N138" s="5" t="s">
         <v>150</v>
@@ -8728,7 +8728,7 @@
         <v>111</v>
       </c>
       <c r="M139" s="4" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="N139" s="5" t="s">
         <v>319</v>
@@ -8763,7 +8763,7 @@
         <v>111</v>
       </c>
       <c r="M140" s="4" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="N140" s="5" t="s">
         <v>320</v>
@@ -8798,7 +8798,7 @@
         <v>111</v>
       </c>
       <c r="M141" s="4" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="N141" s="5" t="s">
         <v>320</v>
@@ -8833,7 +8833,7 @@
         <v>111</v>
       </c>
       <c r="M142" s="4" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="N142" s="5" t="s">
         <v>321</v>
@@ -8868,7 +8868,7 @@
         <v>111</v>
       </c>
       <c r="M143" s="4" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="N143" s="5" t="s">
         <v>322</v>
@@ -8903,7 +8903,7 @@
         <v>111</v>
       </c>
       <c r="M144" s="4" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N144" s="5" t="s">
         <v>323</v>
@@ -8938,7 +8938,7 @@
         <v>111</v>
       </c>
       <c r="M145" s="4" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N145" s="5" t="s">
         <v>324</v>
@@ -8973,7 +8973,7 @@
         <v>111</v>
       </c>
       <c r="M146" s="4" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N146" s="5" t="s">
         <v>325</v>
@@ -9008,7 +9008,7 @@
         <v>111</v>
       </c>
       <c r="M147" s="4" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="N147" s="5" t="s">
         <v>325</v>
@@ -9043,7 +9043,7 @@
         <v>111</v>
       </c>
       <c r="M148" s="4" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N148" s="7" t="s">
         <v>123</v>
@@ -9051,7 +9051,7 @@
     </row>
     <row r="149" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A149" s="5" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>56</v>
@@ -9078,7 +9078,7 @@
         <v>111</v>
       </c>
       <c r="M149" s="4" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="N149" s="7" t="s">
         <v>123</v>
@@ -9113,7 +9113,7 @@
         <v>111</v>
       </c>
       <c r="M150" s="4" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N150" s="7" t="s">
         <v>123</v>
@@ -9148,7 +9148,7 @@
         <v>111</v>
       </c>
       <c r="M151" s="4" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N151" s="7" t="s">
         <v>123</v>
@@ -9156,7 +9156,7 @@
     </row>
     <row r="152" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A152" s="5" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>56</v>
@@ -9183,7 +9183,7 @@
         <v>111</v>
       </c>
       <c r="M152" s="4" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="N152" s="7" t="s">
         <v>123</v>
@@ -9218,7 +9218,7 @@
         <v>111</v>
       </c>
       <c r="M153" s="4" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N153" s="7" t="s">
         <v>123</v>
@@ -9253,7 +9253,7 @@
         <v>111</v>
       </c>
       <c r="M154" s="4" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N154" s="5" t="s">
         <v>354</v>
@@ -9288,7 +9288,7 @@
         <v>111</v>
       </c>
       <c r="M155" s="4" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="N155" s="5" t="s">
         <v>353</v>
@@ -9323,7 +9323,7 @@
         <v>111</v>
       </c>
       <c r="M156" s="4" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="N156" s="5" t="s">
         <v>355</v>
@@ -9361,7 +9361,7 @@
         <v>110</v>
       </c>
       <c r="M157" s="4" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="N157" s="5" t="s">
         <v>389</v>
@@ -9399,7 +9399,7 @@
         <v>110</v>
       </c>
       <c r="M158" s="4" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="N158" s="5" t="s">
         <v>389</v>
@@ -9437,7 +9437,7 @@
         <v>110</v>
       </c>
       <c r="M159" s="4" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="N159" s="5" t="s">
         <v>390</v>
@@ -9475,7 +9475,7 @@
         <v>110</v>
       </c>
       <c r="M160" s="4" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="N160" s="5" t="s">
         <v>390</v>
@@ -9513,7 +9513,7 @@
         <v>110</v>
       </c>
       <c r="M161" s="4" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="N161" s="5" t="s">
         <v>391</v>
@@ -9551,7 +9551,7 @@
         <v>110</v>
       </c>
       <c r="M162" s="4" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="N162" s="5" t="s">
         <v>391</v>
@@ -9565,7 +9565,7 @@
         <v>56</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="D163" s="24" t="s">
         <v>280</v>
@@ -9589,7 +9589,7 @@
         <v>110</v>
       </c>
       <c r="M163" s="4" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="N163" s="5" t="s">
         <v>392</v>
@@ -9603,7 +9603,7 @@
         <v>56</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="D164" s="24" t="s">
         <v>280</v>
@@ -9627,7 +9627,7 @@
         <v>110</v>
       </c>
       <c r="M164" s="4" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="N164" s="5" t="s">
         <v>392</v>
@@ -9641,7 +9641,7 @@
         <v>56</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="D165" s="24" t="s">
         <v>280</v>
@@ -9665,7 +9665,7 @@
         <v>110</v>
       </c>
       <c r="M165" s="4" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="N165" s="5" t="s">
         <v>393</v>
@@ -9703,7 +9703,7 @@
         <v>110</v>
       </c>
       <c r="M166" s="4" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="N166" s="5" t="s">
         <v>393</v>
@@ -9717,7 +9717,7 @@
         <v>56</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="D167" s="24" t="s">
         <v>280</v>
@@ -9741,7 +9741,7 @@
         <v>110</v>
       </c>
       <c r="M167" s="4" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="N167" s="5" t="s">
         <v>394</v>
@@ -9779,7 +9779,7 @@
         <v>110</v>
       </c>
       <c r="M168" s="4" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="N168" s="5" t="s">
         <v>394</v>
@@ -9817,7 +9817,7 @@
         <v>110</v>
       </c>
       <c r="M169" s="4" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="N169" s="5" t="s">
         <v>395</v>
@@ -9855,7 +9855,7 @@
         <v>110</v>
       </c>
       <c r="M170" s="4" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="N170" s="5" t="s">
         <v>395</v>
@@ -9869,7 +9869,7 @@
         <v>56</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="D171" s="24" t="s">
         <v>280</v>
@@ -9893,7 +9893,7 @@
         <v>110</v>
       </c>
       <c r="M171" s="4" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="N171" s="5" t="s">
         <v>396</v>
@@ -9931,7 +9931,7 @@
         <v>110</v>
       </c>
       <c r="M172" s="4" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="N172" s="5" t="s">
         <v>396</v>
@@ -9973,7 +9973,7 @@
         <v>110</v>
       </c>
       <c r="M173" s="27" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="N173" s="31" t="s">
         <v>397</v>
@@ -10011,7 +10011,7 @@
         <v>110</v>
       </c>
       <c r="M174" s="4" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="N174" s="5" t="s">
         <v>397</v>
@@ -10046,7 +10046,7 @@
         <v>111</v>
       </c>
       <c r="M175" s="4" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N175" s="7" t="s">
         <v>123</v>
@@ -10054,7 +10054,7 @@
     </row>
     <row r="176" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A176" s="5" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>56</v>
@@ -10081,7 +10081,7 @@
         <v>111</v>
       </c>
       <c r="M176" s="4" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="N176" s="7" t="s">
         <v>123</v>
@@ -10116,7 +10116,7 @@
         <v>111</v>
       </c>
       <c r="M177" s="4" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N177" s="7" t="s">
         <v>123</v>
@@ -10151,7 +10151,7 @@
         <v>111</v>
       </c>
       <c r="M178" s="4" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N178" s="7" t="s">
         <v>123</v>
@@ -10159,7 +10159,7 @@
     </row>
     <row r="179" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A179" s="5" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="B179" s="4" t="s">
         <v>56</v>
@@ -10186,7 +10186,7 @@
         <v>111</v>
       </c>
       <c r="M179" s="4" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="N179" s="7" t="s">
         <v>123</v>
@@ -10221,7 +10221,7 @@
         <v>111</v>
       </c>
       <c r="M180" s="4" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N180" s="7" t="s">
         <v>123</v>
@@ -10244,13 +10244,13 @@
         <v>478</v>
       </c>
       <c r="F181" s="18" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="G181" s="44">
         <v>45689</v>
       </c>
       <c r="H181" s="13" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="I181" s="13" t="b">
         <v>0</v>
@@ -10263,7 +10263,7 @@
         <v>423</v>
       </c>
       <c r="M181" s="14" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="N181" s="16" t="s">
         <v>422</v>
@@ -10286,13 +10286,13 @@
         <v>478</v>
       </c>
       <c r="F182" s="18" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="G182" s="44">
         <v>45689</v>
       </c>
       <c r="H182" s="13" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="I182" s="13" t="b">
         <v>0</v>
@@ -10305,7 +10305,7 @@
         <v>423</v>
       </c>
       <c r="M182" s="14" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="N182" s="16" t="s">
         <v>422</v>
@@ -10313,7 +10313,7 @@
     </row>
     <row r="183" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A183" s="5" t="s">
-        <v>548</v>
+        <v>842</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>56</v>
@@ -10328,7 +10328,7 @@
         <v>350</v>
       </c>
       <c r="H183" s="5" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="I183" s="5" t="b">
         <v>0</v>
@@ -10340,18 +10340,18 @@
         <v>1</v>
       </c>
       <c r="L183" s="4" t="s">
-        <v>850</v>
+        <v>841</v>
       </c>
       <c r="M183" s="4" t="s">
-        <v>850</v>
+        <v>841</v>
       </c>
       <c r="N183" s="37" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
     </row>
     <row r="184" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A184" s="5" t="s">
-        <v>549</v>
+        <v>843</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>56</v>
@@ -10366,7 +10366,7 @@
         <v>350</v>
       </c>
       <c r="H184" s="5" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="I184" s="5" t="b">
         <v>0</v>
@@ -10378,10 +10378,10 @@
         <v>1</v>
       </c>
       <c r="L184" s="4" t="s">
-        <v>850</v>
+        <v>841</v>
       </c>
       <c r="M184" s="4" t="s">
-        <v>850</v>
+        <v>841</v>
       </c>
       <c r="N184" s="12" t="s">
         <v>429</v>
@@ -10389,7 +10389,7 @@
     </row>
     <row r="185" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A185" s="5" t="s">
-        <v>550</v>
+        <v>844</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>56</v>
@@ -10404,7 +10404,7 @@
         <v>350</v>
       </c>
       <c r="H185" s="5" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="I185" s="5" t="b">
         <v>0</v>
@@ -10416,10 +10416,10 @@
         <v>1</v>
       </c>
       <c r="L185" s="4" t="s">
-        <v>850</v>
+        <v>841</v>
       </c>
       <c r="M185" s="4" t="s">
-        <v>850</v>
+        <v>841</v>
       </c>
       <c r="N185" s="12" t="s">
         <v>430</v>
@@ -10454,7 +10454,7 @@
         <v>111</v>
       </c>
       <c r="M186" s="4" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="N186" s="5" t="s">
         <v>434</v>
@@ -10489,7 +10489,7 @@
         <v>111</v>
       </c>
       <c r="M187" s="4" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N187" s="5" t="s">
         <v>123</v>
@@ -10512,13 +10512,13 @@
         <v>478</v>
       </c>
       <c r="F188" s="18" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="G188" s="44">
         <v>45565</v>
       </c>
       <c r="H188" s="13" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="I188" s="13" t="b">
         <v>0</v>
@@ -10534,7 +10534,7 @@
         <v>111</v>
       </c>
       <c r="M188" s="14" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N188" s="16" t="s">
         <v>123</v>
@@ -10572,7 +10572,7 @@
         <v>111</v>
       </c>
       <c r="M189" s="4" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="N189" s="5" t="s">
         <v>470</v>
@@ -10610,7 +10610,7 @@
         <v>111</v>
       </c>
       <c r="M190" s="4" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="N190" s="5" t="s">
         <v>470</v>
@@ -10648,7 +10648,7 @@
         <v>111</v>
       </c>
       <c r="M191" s="4" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="N191" s="5" t="s">
         <v>470</v>
@@ -10683,7 +10683,7 @@
         <v>111</v>
       </c>
       <c r="M192" s="4" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N192" s="7" t="s">
         <v>123</v>
@@ -10691,7 +10691,7 @@
     </row>
     <row r="193" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A193" s="5" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>56</v>
@@ -10718,7 +10718,7 @@
         <v>111</v>
       </c>
       <c r="M193" s="4" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="N193" s="7" t="s">
         <v>123</v>
@@ -10753,7 +10753,7 @@
         <v>111</v>
       </c>
       <c r="M194" s="4" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N194" s="7" t="s">
         <v>123</v>
@@ -10788,7 +10788,7 @@
         <v>111</v>
       </c>
       <c r="M195" s="4" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N195" s="7" t="s">
         <v>123</v>
@@ -10796,7 +10796,7 @@
     </row>
     <row r="196" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A196" s="5" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>56</v>
@@ -10823,7 +10823,7 @@
         <v>111</v>
       </c>
       <c r="M196" s="4" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="N196" s="7" t="s">
         <v>123</v>
@@ -10858,7 +10858,7 @@
         <v>111</v>
       </c>
       <c r="M197" s="4" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N197" s="7" t="s">
         <v>123</v>
@@ -10881,13 +10881,13 @@
         <v>478</v>
       </c>
       <c r="F198" s="18" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="G198" s="44">
         <v>45565</v>
       </c>
       <c r="H198" s="13" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="I198" s="13" t="b">
         <v>0</v>
@@ -10903,7 +10903,7 @@
         <v>111</v>
       </c>
       <c r="M198" s="14" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N198" s="16" t="s">
         <v>503</v>
@@ -10942,7 +10942,7 @@
         <v>110</v>
       </c>
       <c r="M199" s="4" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="N199" s="5" t="s">
         <v>513</v>
@@ -10981,7 +10981,7 @@
         <v>110</v>
       </c>
       <c r="M200" s="4" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="N200" s="5" t="s">
         <v>513</v>
@@ -11020,7 +11020,7 @@
         <v>110</v>
       </c>
       <c r="M201" s="4" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="N201" s="5" t="s">
         <v>513</v>
@@ -11059,7 +11059,7 @@
         <v>110</v>
       </c>
       <c r="M202" s="4" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="N202" s="5" t="s">
         <v>513</v>
@@ -11097,7 +11097,7 @@
         <v>110</v>
       </c>
       <c r="M203" s="4" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="N203" s="5" t="s">
         <v>518</v>
@@ -11135,7 +11135,7 @@
         <v>110</v>
       </c>
       <c r="M204" s="4" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="N204" s="5" t="s">
         <v>518</v>
@@ -11173,7 +11173,7 @@
         <v>110</v>
       </c>
       <c r="M205" s="4" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="N205" s="5" t="s">
         <v>523</v>
@@ -11211,7 +11211,7 @@
         <v>110</v>
       </c>
       <c r="M206" s="4" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="N206" s="5" t="s">
         <v>523</v>
@@ -11249,7 +11249,7 @@
         <v>110</v>
       </c>
       <c r="M207" s="4" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="N207" s="5" t="s">
         <v>528</v>
@@ -11287,7 +11287,7 @@
         <v>110</v>
       </c>
       <c r="M208" s="4" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="N208" s="5" t="s">
         <v>528</v>
@@ -11325,7 +11325,7 @@
         <v>110</v>
       </c>
       <c r="M209" s="4" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="N209" s="5" t="s">
         <v>533</v>
@@ -11363,7 +11363,7 @@
         <v>110</v>
       </c>
       <c r="M210" s="4" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="N210" s="5" t="s">
         <v>533</v>
@@ -11401,7 +11401,7 @@
         <v>110</v>
       </c>
       <c r="M211" s="4" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="N211" s="5" t="s">
         <v>541</v>
@@ -11439,7 +11439,7 @@
         <v>110</v>
       </c>
       <c r="M212" s="4" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="N212" s="5" t="s">
         <v>546</v>
@@ -11477,7 +11477,7 @@
         <v>110</v>
       </c>
       <c r="M213" s="4" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="N213" s="5" t="s">
         <v>546</v>
@@ -11485,22 +11485,22 @@
     </row>
     <row r="214" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A214" s="5" t="s">
-        <v>552</v>
+        <v>845</v>
       </c>
       <c r="B214" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="D214" s="23" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="E214" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H214" s="5" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="I214" s="5" t="b">
         <v>0</v>
@@ -11512,33 +11512,33 @@
         <v>1</v>
       </c>
       <c r="L214" s="4" t="s">
-        <v>850</v>
+        <v>841</v>
       </c>
       <c r="M214" s="4" t="s">
-        <v>850</v>
+        <v>841</v>
       </c>
       <c r="N214" s="36" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
     </row>
     <row r="215" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A215" s="5" t="s">
-        <v>553</v>
+        <v>846</v>
       </c>
       <c r="B215" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="D215" s="23" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="E215" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H215" s="5" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="I215" s="5" t="b">
         <v>0</v>
@@ -11550,33 +11550,33 @@
         <v>1</v>
       </c>
       <c r="L215" s="4" t="s">
-        <v>850</v>
+        <v>841</v>
       </c>
       <c r="M215" s="4" t="s">
-        <v>850</v>
+        <v>841</v>
       </c>
       <c r="N215" s="36" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
     </row>
     <row r="216" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" s="5" t="s">
-        <v>554</v>
+        <v>847</v>
       </c>
       <c r="B216" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="D216" s="23" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="E216" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H216" s="5" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="I216" s="5" t="b">
         <v>0</v>
@@ -11588,34 +11588,34 @@
         <v>1</v>
       </c>
       <c r="L216" s="4" t="s">
-        <v>850</v>
+        <v>841</v>
       </c>
       <c r="M216" s="4" t="s">
-        <v>850</v>
+        <v>841</v>
       </c>
       <c r="N216" s="36" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
     </row>
     <row r="217" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A217" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C217" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="D217" s="23" t="s">
+        <v>556</v>
+      </c>
+      <c r="E217" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="H217" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="B217" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C217" s="5" t="s">
-        <v>569</v>
-      </c>
-      <c r="D217" s="23" t="s">
-        <v>565</v>
-      </c>
-      <c r="E217" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="H217" s="5" t="s">
-        <v>564</v>
-      </c>
       <c r="I217" s="5" t="b">
         <v>0</v>
       </c>
@@ -11626,33 +11626,33 @@
         <v>1</v>
       </c>
       <c r="L217" s="4" t="s">
-        <v>850</v>
+        <v>841</v>
       </c>
       <c r="M217" s="4" t="s">
-        <v>850</v>
+        <v>841</v>
       </c>
       <c r="N217" s="36" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
     </row>
     <row r="218" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A218" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C218" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="D218" s="23" t="s">
         <v>556</v>
       </c>
-      <c r="B218" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C218" s="5" t="s">
-        <v>570</v>
-      </c>
-      <c r="D218" s="23" t="s">
-        <v>565</v>
-      </c>
       <c r="E218" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H218" s="5" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="I218" s="5" t="b">
         <v>0</v>
@@ -11664,33 +11664,33 @@
         <v>1</v>
       </c>
       <c r="L218" s="4" t="s">
-        <v>850</v>
+        <v>841</v>
       </c>
       <c r="M218" s="4" t="s">
-        <v>850</v>
+        <v>841</v>
       </c>
       <c r="N218" s="36" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
     </row>
     <row r="219" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A219" s="5" t="s">
-        <v>557</v>
+        <v>850</v>
       </c>
       <c r="B219" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="D219" s="23" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="E219" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H219" s="5" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="I219" s="5" t="b">
         <v>0</v>
@@ -11702,34 +11702,34 @@
         <v>1</v>
       </c>
       <c r="L219" s="4" t="s">
-        <v>850</v>
+        <v>841</v>
       </c>
       <c r="M219" s="4" t="s">
-        <v>850</v>
+        <v>841</v>
       </c>
       <c r="N219" s="36" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
     </row>
     <row r="220" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A220" s="5" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="B220" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="D220" s="23" t="s">
+        <v>556</v>
+      </c>
+      <c r="E220" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="H220" s="5" t="s">
         <v>565</v>
       </c>
-      <c r="E220" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="H220" s="5" t="s">
-        <v>574</v>
-      </c>
       <c r="I220" s="5" t="b">
         <v>0</v>
       </c>
@@ -11737,33 +11737,33 @@
         <v>0</v>
       </c>
       <c r="L220" s="4" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="M220" s="4" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="N220" s="5" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
     </row>
     <row r="221" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A221" s="5" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="B221" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="D221" s="23" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="E221" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H221" s="5" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="I221" s="5" t="b">
         <v>0</v>
@@ -11775,30 +11775,30 @@
         <v>423</v>
       </c>
       <c r="M221" s="4" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="N221" s="5" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
     </row>
     <row r="222" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A222" s="5" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="B222" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="D222" s="23" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="E222" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H222" s="5" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="I222" s="5" t="b">
         <v>0</v>
@@ -11810,30 +11810,30 @@
         <v>423</v>
       </c>
       <c r="M222" s="4" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="N222" s="5" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
     </row>
     <row r="223" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A223" s="5" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="D223" s="23" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="E223" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H223" s="5" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="I223" s="5" t="b">
         <v>1</v>
@@ -11848,30 +11848,30 @@
         <v>111</v>
       </c>
       <c r="M223" s="4" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N223" s="5" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
     </row>
     <row r="224" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A224" s="5" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="D224" s="23" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="E224" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H224" s="5" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="I224" s="5" t="b">
         <v>1</v>
@@ -11886,36 +11886,36 @@
         <v>111</v>
       </c>
       <c r="M224" s="4" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="N224" s="5" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
     </row>
     <row r="225" spans="1:14" s="13" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A225" s="38" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="B225" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C225" s="13" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="D225" s="25" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="E225" s="21" t="s">
         <v>478</v>
       </c>
       <c r="F225" s="18" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="G225" s="44">
         <v>45565</v>
       </c>
       <c r="H225" s="13" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="I225" s="13" t="b">
         <v>0</v>
@@ -11930,30 +11930,30 @@
         <v>111</v>
       </c>
       <c r="M225" s="14" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N225" s="13" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
     </row>
     <row r="226" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="D226" s="23" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="E226" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H226" s="5" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="I226" s="5" t="b">
         <v>0</v>
@@ -11968,10 +11968,10 @@
         <v>111</v>
       </c>
       <c r="M226" s="4" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N226" s="5" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
     </row>
     <row r="227" spans="1:14" ht="16" x14ac:dyDescent="0.2">
@@ -11979,19 +11979,19 @@
         <v>500</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="C227" s="5" t="s">
         <v>501</v>
       </c>
       <c r="D227" s="23" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="E227" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H227" s="5" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="I227" s="5" t="b">
         <v>0</v>
@@ -12006,7 +12006,7 @@
         <v>111</v>
       </c>
       <c r="M227" s="4" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N227" s="5" t="s">
         <v>503</v>
@@ -12014,28 +12014,28 @@
     </row>
     <row r="228" spans="1:14" s="13" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A228" s="38" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="B228" s="14" t="s">
         <v>56</v>
       </c>
       <c r="C228" s="13" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="D228" s="25" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="E228" s="21" t="s">
         <v>478</v>
       </c>
       <c r="F228" s="18" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="G228" s="44">
         <v>45565</v>
       </c>
       <c r="H228" s="13" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="I228" s="13" t="b">
         <v>0</v>
@@ -12050,30 +12050,30 @@
         <v>111</v>
       </c>
       <c r="M228" s="14" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N228" s="13" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
     </row>
     <row r="229" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="B229" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="C229" s="5" t="s">
         <v>584</v>
       </c>
-      <c r="C229" s="5" t="s">
-        <v>593</v>
-      </c>
       <c r="D229" s="23" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="E229" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H229" s="5" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="I229" s="5" t="b">
         <v>0</v>
@@ -12088,36 +12088,36 @@
         <v>111</v>
       </c>
       <c r="M229" s="4" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N229" s="5" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
     </row>
     <row r="230" spans="1:14" s="13" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A230" s="13" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="B230" s="13" t="s">
         <v>56</v>
       </c>
       <c r="C230" s="13" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="D230" s="25" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="E230" s="21" t="s">
         <v>478</v>
       </c>
       <c r="F230" s="39" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="G230" s="44">
         <v>45717</v>
       </c>
       <c r="H230" s="13" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="I230" s="13" t="b">
         <v>0</v>
@@ -12132,36 +12132,36 @@
         <v>111</v>
       </c>
       <c r="M230" s="14" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N230" s="13" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
     </row>
     <row r="231" spans="1:14" s="13" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A231" s="13" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="B231" s="13" t="s">
         <v>56</v>
       </c>
       <c r="C231" s="13" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="D231" s="25" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="E231" s="21" t="s">
         <v>478</v>
       </c>
       <c r="F231" s="39" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="G231" s="44">
         <v>45717</v>
       </c>
       <c r="H231" s="13" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="I231" s="13" t="b">
         <v>0</v>
@@ -12176,36 +12176,36 @@
         <v>111</v>
       </c>
       <c r="M231" s="14" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="N231" s="13" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
     </row>
     <row r="232" spans="1:14" s="13" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A232" s="13" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="B232" s="13" t="s">
         <v>56</v>
       </c>
       <c r="C232" s="13" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="D232" s="25" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="E232" s="21" t="s">
         <v>478</v>
       </c>
       <c r="F232" s="39" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="G232" s="44">
         <v>45717</v>
       </c>
       <c r="H232" s="13" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="I232" s="13" t="b">
         <v>0</v>
@@ -12220,7 +12220,7 @@
         <v>111</v>
       </c>
       <c r="M232" s="14" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N232" s="13" t="s">
         <v>503</v>
@@ -12228,28 +12228,28 @@
     </row>
     <row r="233" spans="1:14" s="13" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A233" s="13" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="B233" s="13" t="s">
         <v>56</v>
       </c>
       <c r="C233" s="13" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="D233" s="25" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="E233" s="21" t="s">
         <v>478</v>
       </c>
       <c r="F233" s="39" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="G233" s="44">
         <v>45717</v>
       </c>
       <c r="H233" s="13" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="I233" s="13" t="b">
         <v>0</v>
@@ -12264,7 +12264,7 @@
         <v>111</v>
       </c>
       <c r="M233" s="14" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="N233" s="13" t="s">
         <v>503</v>
@@ -12272,22 +12272,22 @@
     </row>
     <row r="234" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A234" s="5" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="D234" s="23" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="E234" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H234" s="5" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="I234" s="5" t="b">
         <v>0</v>
@@ -12302,30 +12302,30 @@
         <v>111</v>
       </c>
       <c r="M234" s="4" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N234" s="5" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
     </row>
     <row r="235" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A235" s="5" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="D235" s="23" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="E235" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H235" s="5" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="I235" s="5" t="b">
         <v>0</v>
@@ -12340,30 +12340,30 @@
         <v>111</v>
       </c>
       <c r="M235" s="4" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="N235" s="5" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
     </row>
     <row r="236" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A236" s="5" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="C236" s="5" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="D236" s="23" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="E236" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H236" s="5" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="I236" s="5" t="b">
         <v>0</v>
@@ -12378,7 +12378,7 @@
         <v>111</v>
       </c>
       <c r="M236" s="4" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N236" s="5" t="s">
         <v>503</v>
@@ -12386,22 +12386,22 @@
     </row>
     <row r="237" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A237" s="5" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="C237" s="5" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="D237" s="23" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="E237" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H237" s="5" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="I237" s="5" t="b">
         <v>0</v>
@@ -12416,7 +12416,7 @@
         <v>111</v>
       </c>
       <c r="M237" s="4" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="N237" s="5" t="s">
         <v>503</v>
@@ -12424,22 +12424,22 @@
     </row>
     <row r="238" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A238" s="5" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="B238" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="D238" s="24" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="E238" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H238" s="5" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="I238" s="5" t="b">
         <v>0</v>
@@ -12451,7 +12451,7 @@
         <v>111</v>
       </c>
       <c r="M238" s="4" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N238" s="7" t="s">
         <v>123</v>
@@ -12459,22 +12459,22 @@
     </row>
     <row r="239" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A239" s="5" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="B239" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="D239" s="24" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="E239" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H239" s="5" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="I239" s="5" t="b">
         <v>0</v>
@@ -12486,7 +12486,7 @@
         <v>111</v>
       </c>
       <c r="M239" s="4" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="N239" s="7" t="s">
         <v>123</v>
@@ -12494,22 +12494,22 @@
     </row>
     <row r="240" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A240" s="5" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="B240" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="D240" s="24" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="E240" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H240" s="5" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="I240" s="5" t="b">
         <v>0</v>
@@ -12521,7 +12521,7 @@
         <v>111</v>
       </c>
       <c r="M240" s="4" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N240" s="7" t="s">
         <v>123</v>
@@ -12529,22 +12529,22 @@
     </row>
     <row r="241" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A241" s="5" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="B241" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="D241" s="24" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="E241" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H241" s="5" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="I241" s="5" t="b">
         <v>0</v>
@@ -12556,7 +12556,7 @@
         <v>111</v>
       </c>
       <c r="M241" s="4" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N241" s="7" t="s">
         <v>123</v>
@@ -12564,22 +12564,22 @@
     </row>
     <row r="242" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A242" s="5" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="B242" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="D242" s="24" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="E242" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H242" s="5" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="I242" s="5" t="b">
         <v>0</v>
@@ -12591,7 +12591,7 @@
         <v>111</v>
       </c>
       <c r="M242" s="4" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="N242" s="7" t="s">
         <v>123</v>
@@ -12599,22 +12599,22 @@
     </row>
     <row r="243" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A243" s="5" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="B243" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="D243" s="24" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="E243" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H243" s="5" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="I243" s="5" t="b">
         <v>0</v>
@@ -12626,7 +12626,7 @@
         <v>111</v>
       </c>
       <c r="M243" s="4" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N243" s="7" t="s">
         <v>123</v>
@@ -12634,22 +12634,22 @@
     </row>
     <row r="244" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A244" s="5" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="D244" s="24" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="E244" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H244" s="5" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="I244" s="5" t="b">
         <v>0</v>
@@ -12664,30 +12664,30 @@
         <v>111</v>
       </c>
       <c r="M244" s="4" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N244" s="5" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
     </row>
     <row r="245" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A245" s="5" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="D245" s="24" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="E245" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H245" s="5" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="I245" s="5" t="b">
         <v>0</v>
@@ -12702,30 +12702,30 @@
         <v>111</v>
       </c>
       <c r="M245" s="4" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="N245" s="5" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
     </row>
     <row r="246" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="D246" s="24" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="E246" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H246" s="5" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="I246" s="5" t="b">
         <v>0</v>
@@ -12740,30 +12740,30 @@
         <v>111</v>
       </c>
       <c r="M246" s="4" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N246" s="5" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
     </row>
     <row r="247" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="D247" s="24" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="E247" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H247" s="5" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="I247" s="5" t="b">
         <v>0</v>
@@ -12778,30 +12778,30 @@
         <v>111</v>
       </c>
       <c r="M247" s="4" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="N247" s="5" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
     </row>
     <row r="248" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="D248" s="24" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="E248" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H248" s="5" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="I248" s="5" t="b">
         <v>0</v>
@@ -12816,7 +12816,7 @@
         <v>111</v>
       </c>
       <c r="M248" s="4" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N248" s="5" t="s">
         <v>503</v>
@@ -12824,22 +12824,22 @@
     </row>
     <row r="249" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="D249" s="24" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="E249" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H249" s="5" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="I249" s="5" t="b">
         <v>0</v>
@@ -12854,7 +12854,7 @@
         <v>111</v>
       </c>
       <c r="M249" s="4" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="N249" s="5" t="s">
         <v>503</v>
@@ -12862,16 +12862,16 @@
     </row>
     <row r="250" spans="1:14" s="13" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A250" s="13" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="B250" s="13" t="s">
         <v>56</v>
       </c>
       <c r="C250" s="13" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="D250" s="25" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="E250" s="21" t="s">
         <v>478</v>
@@ -12883,7 +12883,7 @@
         <v>45909</v>
       </c>
       <c r="H250" s="13" t="s">
-        <v>836</v>
+        <v>827</v>
       </c>
       <c r="I250" s="13" t="b">
         <v>0</v>
@@ -12898,24 +12898,24 @@
         <v>111</v>
       </c>
       <c r="M250" s="14" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N250" s="13" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
     </row>
     <row r="251" spans="1:14" s="13" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A251" s="13" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="B251" s="13" t="s">
         <v>56</v>
       </c>
       <c r="C251" s="13" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="D251" s="25" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="E251" s="21" t="s">
         <v>478</v>
@@ -12927,7 +12927,7 @@
         <v>45909</v>
       </c>
       <c r="H251" s="13" t="s">
-        <v>836</v>
+        <v>827</v>
       </c>
       <c r="I251" s="13" t="b">
         <v>0</v>
@@ -12942,24 +12942,24 @@
         <v>111</v>
       </c>
       <c r="M251" s="14" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="N251" s="13" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
     </row>
     <row r="252" spans="1:14" s="13" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A252" s="13" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="B252" s="13" t="s">
         <v>56</v>
       </c>
       <c r="C252" s="13" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="D252" s="25" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="E252" s="21" t="s">
         <v>478</v>
@@ -12971,7 +12971,7 @@
         <v>45909</v>
       </c>
       <c r="H252" s="13" t="s">
-        <v>836</v>
+        <v>827</v>
       </c>
       <c r="I252" s="13" t="b">
         <v>0</v>
@@ -12986,7 +12986,7 @@
         <v>111</v>
       </c>
       <c r="M252" s="14" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N252" s="13" t="s">
         <v>503</v>
@@ -12994,16 +12994,16 @@
     </row>
     <row r="253" spans="1:14" s="13" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A253" s="13" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="B253" s="13" t="s">
         <v>56</v>
       </c>
       <c r="C253" s="13" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="D253" s="25" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="E253" s="21" t="s">
         <v>478</v>
@@ -13015,7 +13015,7 @@
         <v>45909</v>
       </c>
       <c r="H253" s="13" t="s">
-        <v>836</v>
+        <v>827</v>
       </c>
       <c r="I253" s="13" t="b">
         <v>0</v>
@@ -13030,7 +13030,7 @@
         <v>111</v>
       </c>
       <c r="M253" s="14" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="N253" s="13" t="s">
         <v>503</v>
@@ -13038,22 +13038,22 @@
     </row>
     <row r="254" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A254" s="5" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="B254" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C254" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="D254" s="23" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="E254" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H254" s="5" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="I254" s="5" t="b">
         <v>0</v>
@@ -13062,33 +13062,33 @@
         <v>0</v>
       </c>
       <c r="L254" s="4" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="M254" s="4" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="N254" s="5" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
     </row>
     <row r="255" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A255" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="B255" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C255" s="5" t="s">
         <v>644</v>
       </c>
-      <c r="B255" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C255" s="5" t="s">
-        <v>653</v>
-      </c>
       <c r="D255" s="23" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="E255" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H255" s="5" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="I255" s="5" t="b">
         <v>0</v>
@@ -13097,103 +13097,103 @@
         <v>0</v>
       </c>
       <c r="L255" s="4" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="M255" s="4" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="N255" s="5" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
     </row>
     <row r="256" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A256" s="5" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="B256" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="D256" s="23" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="E256" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H256" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="I256" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J256" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L256" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="M256" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="N256" s="5" t="s">
         <v>642</v>
-      </c>
-      <c r="I256" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J256" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L256" s="4" t="s">
-        <v>576</v>
-      </c>
-      <c r="M256" s="4" t="s">
-        <v>703</v>
-      </c>
-      <c r="N256" s="5" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="257" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A257" s="5" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="B257" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="D257" s="23" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="E257" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H257" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="I257" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J257" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L257" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="M257" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="N257" s="5" t="s">
         <v>642</v>
-      </c>
-      <c r="I257" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J257" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L257" s="4" t="s">
-        <v>576</v>
-      </c>
-      <c r="M257" s="4" t="s">
-        <v>703</v>
-      </c>
-      <c r="N257" s="5" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="258" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A258" s="5" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="B258" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="D258" s="23" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="E258" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H258" s="5" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="I258" s="5" t="b">
         <v>0</v>
@@ -13202,33 +13202,33 @@
         <v>0</v>
       </c>
       <c r="L258" s="4" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="M258" s="4" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="N258" s="5" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
     </row>
     <row r="259" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A259" s="5" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="B259" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="D259" s="23" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="E259" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H259" s="5" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="I259" s="5" t="b">
         <v>0</v>
@@ -13237,34 +13237,34 @@
         <v>0</v>
       </c>
       <c r="L259" s="4" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="M259" s="4" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="N259" s="5" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
     </row>
     <row r="260" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A260" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="B260" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C260" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="D260" s="23" t="s">
+        <v>631</v>
+      </c>
+      <c r="E260" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="H260" s="5" t="s">
         <v>667</v>
       </c>
-      <c r="B260" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C260" s="5" t="s">
-        <v>658</v>
-      </c>
-      <c r="D260" s="23" t="s">
-        <v>640</v>
-      </c>
-      <c r="E260" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="H260" s="5" t="s">
-        <v>676</v>
-      </c>
       <c r="I260" s="5" t="b">
         <v>0</v>
       </c>
@@ -13272,33 +13272,33 @@
         <v>0</v>
       </c>
       <c r="L260" s="4" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="M260" s="4" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="N260" s="5" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
     </row>
     <row r="261" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A261" s="5" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="B261" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="D261" s="23" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="E261" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H261" s="5" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="I261" s="5" t="b">
         <v>0</v>
@@ -13307,33 +13307,33 @@
         <v>0</v>
       </c>
       <c r="L261" s="4" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="M261" s="4" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="N261" s="5" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
     </row>
     <row r="262" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A262" s="5" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="B262" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="D262" s="23" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="E262" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H262" s="5" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="I262" s="5" t="b">
         <v>0</v>
@@ -13342,33 +13342,33 @@
         <v>0</v>
       </c>
       <c r="L262" s="4" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="M262" s="4" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="N262" s="5" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
     </row>
     <row r="263" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A263" s="5" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="B263" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="D263" s="23" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="E263" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H263" s="5" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="I263" s="5" t="b">
         <v>0</v>
@@ -13377,33 +13377,33 @@
         <v>0</v>
       </c>
       <c r="L263" s="4" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="M263" s="4" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="N263" s="5" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
     </row>
     <row r="264" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A264" s="5" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="B264" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="D264" s="23" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="E264" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H264" s="5" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="I264" s="5" t="b">
         <v>0</v>
@@ -13412,33 +13412,33 @@
         <v>0</v>
       </c>
       <c r="L264" s="4" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="M264" s="4" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="N264" s="5" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
     </row>
     <row r="265" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A265" s="5" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="B265" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="D265" s="23" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="E265" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H265" s="5" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="I265" s="5" t="b">
         <v>0</v>
@@ -13447,33 +13447,33 @@
         <v>0</v>
       </c>
       <c r="L265" s="4" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="M265" s="4" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="N265" s="5" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
     </row>
     <row r="266" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A266" s="5" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="B266" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="D266" s="23" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="E266" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H266" s="5" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="I266" s="5" t="b">
         <v>0</v>
@@ -13482,33 +13482,33 @@
         <v>0</v>
       </c>
       <c r="L266" s="4" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="M266" s="4" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="N266" s="5" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
     </row>
     <row r="267" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A267" s="5" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="B267" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="D267" s="23" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="E267" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H267" s="5" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="I267" s="5" t="b">
         <v>0</v>
@@ -13517,33 +13517,33 @@
         <v>0</v>
       </c>
       <c r="L267" s="4" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="M267" s="4" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="N267" s="5" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
     </row>
     <row r="268" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A268" s="5" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="B268" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="D268" s="23" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="E268" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H268" s="5" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="I268" s="5" t="b">
         <v>0</v>
@@ -13552,33 +13552,33 @@
         <v>0</v>
       </c>
       <c r="L268" s="4" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="M268" s="4" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="N268" s="5" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
     </row>
     <row r="269" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A269" s="5" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="B269" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="D269" s="23" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="E269" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H269" s="5" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="I269" s="5" t="b">
         <v>0</v>
@@ -13594,30 +13594,30 @@
         <v>111</v>
       </c>
       <c r="M269" s="4" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N269" s="5" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
     </row>
     <row r="270" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A270" s="5" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="B270" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="D270" s="23" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="E270" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H270" s="5" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="I270" s="5" t="b">
         <v>0</v>
@@ -13633,30 +13633,30 @@
         <v>111</v>
       </c>
       <c r="M270" s="4" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="N270" s="5" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
     </row>
     <row r="271" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A271" s="5" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="B271" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="D271" s="23" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="E271" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H271" s="5" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="I271" s="5" t="b">
         <v>0</v>
@@ -13665,33 +13665,33 @@
         <v>0</v>
       </c>
       <c r="L271" s="4" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="M271" s="4" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="N271" s="5" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
     </row>
     <row r="272" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A272" s="5" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="B272" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="D272" s="23" t="s">
+        <v>698</v>
+      </c>
+      <c r="E272" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="H272" s="5" t="s">
         <v>707</v>
-      </c>
-      <c r="E272" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="H272" s="5" t="s">
-        <v>716</v>
       </c>
       <c r="I272" s="5" t="b">
         <v>0</v>
@@ -13704,33 +13704,33 @@
         <v>1</v>
       </c>
       <c r="L272" s="4" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="M272" s="4" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N272" s="5" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
     </row>
     <row r="273" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A273" s="5" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="B273" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C273" s="5" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="D273" s="23" t="s">
+        <v>698</v>
+      </c>
+      <c r="E273" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="H273" s="5" t="s">
         <v>707</v>
-      </c>
-      <c r="E273" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="H273" s="5" t="s">
-        <v>716</v>
       </c>
       <c r="I273" s="5" t="b">
         <v>0</v>
@@ -13743,33 +13743,33 @@
         <v>1</v>
       </c>
       <c r="L273" s="4" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="M273" s="4" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N273" s="5" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
     </row>
     <row r="274" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A274" s="5" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="B274" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C274" s="5" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="D274" s="23" t="s">
+        <v>698</v>
+      </c>
+      <c r="E274" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="H274" s="5" t="s">
         <v>707</v>
-      </c>
-      <c r="E274" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="H274" s="5" t="s">
-        <v>716</v>
       </c>
       <c r="I274" s="5" t="b">
         <v>0</v>
@@ -13782,33 +13782,33 @@
         <v>1</v>
       </c>
       <c r="L274" s="4" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="M274" s="4" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N274" s="5" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
     </row>
     <row r="275" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A275" s="5" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="B275" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="D275" s="23" t="s">
+        <v>698</v>
+      </c>
+      <c r="E275" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="H275" s="5" t="s">
         <v>707</v>
-      </c>
-      <c r="E275" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="H275" s="5" t="s">
-        <v>716</v>
       </c>
       <c r="I275" s="5" t="b">
         <v>0</v>
@@ -13821,33 +13821,33 @@
         <v>1</v>
       </c>
       <c r="L275" s="4" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="M275" s="4" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N275" s="5" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
     </row>
     <row r="276" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A276" s="5" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="B276" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="D276" s="23" t="s">
+        <v>698</v>
+      </c>
+      <c r="E276" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="H276" s="5" t="s">
         <v>707</v>
-      </c>
-      <c r="E276" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="H276" s="5" t="s">
-        <v>716</v>
       </c>
       <c r="I276" s="5" t="b">
         <v>0</v>
@@ -13860,33 +13860,33 @@
         <v>1</v>
       </c>
       <c r="L276" s="4" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="M276" s="4" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N276" s="5" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
     </row>
     <row r="277" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A277" s="5" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="B277" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="D277" s="23" t="s">
+        <v>698</v>
+      </c>
+      <c r="E277" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="H277" s="5" t="s">
         <v>707</v>
-      </c>
-      <c r="E277" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="H277" s="5" t="s">
-        <v>716</v>
       </c>
       <c r="I277" s="5" t="b">
         <v>0</v>
@@ -13899,33 +13899,33 @@
         <v>1</v>
       </c>
       <c r="L277" s="4" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="M277" s="4" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="N277" s="5" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
     </row>
     <row r="278" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A278" s="5" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="B278" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="D278" s="24" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="E278" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H278" s="5" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="I278" s="5" t="b">
         <v>0</v>
@@ -13938,33 +13938,33 @@
         <v>1</v>
       </c>
       <c r="L278" s="4" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="M278" s="4" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="N278" s="5" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
     </row>
     <row r="279" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A279" s="5" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="B279" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="D279" s="24" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="E279" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H279" s="5" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="I279" s="5" t="b">
         <v>0</v>
@@ -13977,33 +13977,33 @@
         <v>1</v>
       </c>
       <c r="L279" s="4" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="M279" s="4" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="N279" s="5" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
     </row>
     <row r="280" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="D280" s="24" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="E280" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H280" s="5" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="I280" s="5" t="b">
         <v>0</v>
@@ -14019,30 +14019,30 @@
         <v>111</v>
       </c>
       <c r="M280" s="4" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N280" s="5" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
     </row>
     <row r="281" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="D281" s="24" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="E281" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H281" s="5" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="I281" s="5" t="b">
         <v>0</v>
@@ -14058,30 +14058,30 @@
         <v>111</v>
       </c>
       <c r="M281" s="4" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="N281" s="5" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
     </row>
     <row r="282" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="D282" s="24" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="E282" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H282" s="5" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="I282" s="5" t="b">
         <v>0</v>
@@ -14097,7 +14097,7 @@
         <v>111</v>
       </c>
       <c r="M282" s="4" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N282" s="5" t="s">
         <v>503</v>
@@ -14105,22 +14105,22 @@
     </row>
     <row r="283" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>745</v>
+        <v>736</v>
       </c>
       <c r="D283" s="24" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="E283" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H283" s="5" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="I283" s="5" t="b">
         <v>0</v>
@@ -14136,7 +14136,7 @@
         <v>111</v>
       </c>
       <c r="M283" s="4" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="N283" s="5" t="s">
         <v>503</v>
@@ -14144,22 +14144,22 @@
     </row>
     <row r="284" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>823</v>
+        <v>814</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>819</v>
+        <v>810</v>
       </c>
       <c r="D284" s="24" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="E284" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H284" s="5" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="I284" s="5" t="b">
         <v>0</v>
@@ -14172,30 +14172,30 @@
         <v>111</v>
       </c>
       <c r="M284" s="4" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="N284" s="5" t="s">
-        <v>822</v>
+        <v>813</v>
       </c>
     </row>
     <row r="285" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>820</v>
+        <v>811</v>
       </c>
       <c r="D285" s="24" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="E285" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H285" s="5" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="I285" s="5" t="b">
         <v>0</v>
@@ -14208,30 +14208,30 @@
         <v>111</v>
       </c>
       <c r="M285" s="4" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="N285" s="5" t="s">
-        <v>822</v>
+        <v>813</v>
       </c>
     </row>
     <row r="286" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A286" s="5" t="s">
-        <v>780</v>
+        <v>771</v>
       </c>
       <c r="B286" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
       <c r="D286" s="24" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="E286" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H286" s="5" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="I286" s="5" t="b">
         <v>0</v>
@@ -14241,33 +14241,33 @@
         <v>1</v>
       </c>
       <c r="L286" s="4" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="M286" s="4" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N286" s="5" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
     </row>
     <row r="287" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A287" s="5" t="s">
-        <v>781</v>
+        <v>772</v>
       </c>
       <c r="B287" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="D287" s="24" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="E287" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H287" s="5" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="I287" s="5" t="b">
         <v>0</v>
@@ -14277,33 +14277,33 @@
         <v>1</v>
       </c>
       <c r="L287" s="4" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="M287" s="4" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="N287" s="5" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
     </row>
     <row r="288" spans="1:14" ht="64" x14ac:dyDescent="0.2">
       <c r="A288" s="5" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="B288" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="D288" s="24" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="E288" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H288" s="5" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="I288" s="5" t="b">
         <v>0</v>
@@ -14313,33 +14313,33 @@
         <v>1</v>
       </c>
       <c r="L288" s="4" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="M288" s="4" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="N288" s="5" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
     </row>
     <row r="289" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A289" s="5" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="B289" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>785</v>
+        <v>776</v>
       </c>
       <c r="D289" s="24" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="E289" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H289" s="5" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="I289" s="5" t="b">
         <v>0</v>
@@ -14349,33 +14349,33 @@
         <v>1</v>
       </c>
       <c r="L289" s="4" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="M289" s="4" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="N289" s="5" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
     </row>
     <row r="290" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A290" s="5" t="s">
-        <v>788</v>
+        <v>779</v>
       </c>
       <c r="B290" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="D290" s="24" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="E290" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H290" s="5" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="I290" s="5" t="b">
         <v>0</v>
@@ -14385,33 +14385,33 @@
         <v>1</v>
       </c>
       <c r="L290" s="4" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="M290" s="4" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="N290" s="5" t="s">
-        <v>815</v>
+        <v>806</v>
       </c>
     </row>
     <row r="291" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A291" s="5" t="s">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="B291" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="D291" s="24" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="E291" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H291" s="5" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="I291" s="5" t="b">
         <v>0</v>
@@ -14421,33 +14421,33 @@
         <v>1</v>
       </c>
       <c r="L291" s="4" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="M291" s="4" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N291" s="5" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
     </row>
     <row r="292" spans="1:14" ht="64" x14ac:dyDescent="0.2">
       <c r="A292" s="5" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="B292" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>791</v>
+        <v>782</v>
       </c>
       <c r="D292" s="24" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="E292" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H292" s="5" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="I292" s="5" t="b">
         <v>0</v>
@@ -14457,33 +14457,33 @@
         <v>1</v>
       </c>
       <c r="L292" s="4" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="M292" s="4" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="N292" s="5" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
     </row>
     <row r="293" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A293" s="5" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="B293" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>796</v>
+        <v>787</v>
       </c>
       <c r="D293" s="24" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="E293" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H293" s="5" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="I293" s="5" t="b">
         <v>0</v>
@@ -14493,33 +14493,33 @@
         <v>1</v>
       </c>
       <c r="L293" s="4" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="M293" s="4" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="N293" s="5" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
     </row>
     <row r="294" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A294" s="5" t="s">
-        <v>794</v>
+        <v>785</v>
       </c>
       <c r="B294" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C294" s="5" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
       <c r="D294" s="24" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="E294" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H294" s="5" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="I294" s="5" t="b">
         <v>0</v>
@@ -14529,33 +14529,33 @@
         <v>1</v>
       </c>
       <c r="L294" s="4" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="M294" s="4" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="N294" s="5" t="s">
-        <v>815</v>
+        <v>806</v>
       </c>
     </row>
     <row r="295" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A295" s="5" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="B295" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C295" s="5" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="D295" s="24" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="E295" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H295" s="5" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="I295" s="5" t="b">
         <v>0</v>
@@ -14565,33 +14565,33 @@
         <v>1</v>
       </c>
       <c r="L295" s="4" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="M295" s="4" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N295" s="5" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
     </row>
     <row r="296" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A296" s="5" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="B296" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
       <c r="D296" s="24" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="E296" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H296" s="5" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="I296" s="5" t="b">
         <v>0</v>
@@ -14601,33 +14601,33 @@
         <v>1</v>
       </c>
       <c r="L296" s="4" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="M296" s="4" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="N296" s="5" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
     </row>
     <row r="297" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A297" s="5" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="B297" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>801</v>
+        <v>792</v>
       </c>
       <c r="D297" s="24" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="E297" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H297" s="5" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="I297" s="5" t="b">
         <v>0</v>
@@ -14637,33 +14637,33 @@
         <v>1</v>
       </c>
       <c r="L297" s="4" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="M297" s="4" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N297" s="5" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
     </row>
     <row r="298" spans="1:14" ht="64" x14ac:dyDescent="0.2">
       <c r="A298" s="5" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
       <c r="B298" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="D298" s="24" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="E298" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H298" s="5" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="I298" s="5" t="b">
         <v>0</v>
@@ -14673,33 +14673,33 @@
         <v>1</v>
       </c>
       <c r="L298" s="4" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="M298" s="4" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="N298" s="5" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
     </row>
     <row r="299" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A299" s="5" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
       <c r="B299" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="D299" s="24" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="E299" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H299" s="5" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="I299" s="5" t="b">
         <v>0</v>
@@ -14709,33 +14709,33 @@
         <v>1</v>
       </c>
       <c r="L299" s="4" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="M299" s="4" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="N299" s="5" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
     </row>
     <row r="300" spans="1:14" ht="32" x14ac:dyDescent="0.2">
       <c r="A300" s="5" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
       <c r="B300" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="D300" s="24" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="E300" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H300" s="5" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="I300" s="5" t="b">
         <v>0</v>
@@ -14745,33 +14745,33 @@
         <v>1</v>
       </c>
       <c r="L300" s="4" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="M300" s="4" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="N300" s="5" t="s">
-        <v>815</v>
+        <v>806</v>
       </c>
     </row>
     <row r="301" spans="1:14" ht="48" x14ac:dyDescent="0.2">
       <c r="A301" s="5" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
       <c r="B301" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
       <c r="D301" s="24" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="E301" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H301" s="5" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="I301" s="5" t="b">
         <v>0</v>
@@ -14781,33 +14781,33 @@
         <v>1</v>
       </c>
       <c r="L301" s="4" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="M301" s="4" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N301" s="5" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
     </row>
     <row r="302" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A302" s="5" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
       <c r="B302" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
       <c r="D302" s="24" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="E302" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H302" s="5" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="I302" s="5" t="b">
         <v>0</v>
@@ -14817,33 +14817,33 @@
         <v>1</v>
       </c>
       <c r="L302" s="4" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="M302" s="4" t="s">
-        <v>813</v>
+        <v>804</v>
       </c>
       <c r="N302" s="5" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
     </row>
     <row r="303" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A303" s="5" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="B303" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>826</v>
+        <v>817</v>
       </c>
       <c r="D303" s="24" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="E303" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H303" s="5" t="s">
-        <v>827</v>
+        <v>818</v>
       </c>
       <c r="I303" s="5" t="b">
         <v>0</v>
@@ -14852,33 +14852,33 @@
         <v>0</v>
       </c>
       <c r="L303" s="4" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="M303" s="4" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="N303" s="5" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
     </row>
     <row r="304" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A304" s="5" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="B304" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
       <c r="D304" s="24" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
       <c r="E304" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H304" s="5" t="s">
-        <v>833</v>
+        <v>824</v>
       </c>
       <c r="I304" s="5" t="b">
         <v>0</v>
@@ -14891,31 +14891,31 @@
         <v>423</v>
       </c>
       <c r="M304" s="4" t="s">
-        <v>834</v>
+        <v>825</v>
       </c>
       <c r="N304" s="5" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
     </row>
     <row r="305" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A305" s="5" t="s">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="B305" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>840</v>
+        <v>831</v>
       </c>
       <c r="D305" s="24" t="s">
+        <v>819</v>
+      </c>
+      <c r="E305" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="H305" s="5" t="s">
         <v>828</v>
       </c>
-      <c r="E305" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="H305" s="5" t="s">
-        <v>837</v>
-      </c>
       <c r="I305" s="5" t="b">
         <v>0</v>
       </c>
@@ -14923,33 +14923,33 @@
         <v>0</v>
       </c>
       <c r="L305" s="4" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="M305" s="4" t="s">
-        <v>838</v>
+        <v>829</v>
       </c>
       <c r="N305" s="5" t="s">
-        <v>839</v>
+        <v>830</v>
       </c>
     </row>
     <row r="306" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>842</v>
+        <v>833</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="D306" s="24" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="E306" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H306" s="5" t="s">
-        <v>847</v>
+        <v>838</v>
       </c>
       <c r="I306" s="5" t="b">
         <v>0</v>
@@ -14965,30 +14965,30 @@
         <v>111</v>
       </c>
       <c r="M306" s="4" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="N306" s="5" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
     </row>
     <row r="307" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="D307" s="24" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="E307" s="20" t="s">
         <v>350</v>
       </c>
       <c r="H307" s="5" t="s">
-        <v>847</v>
+        <v>838</v>
       </c>
       <c r="I307" s="5" t="b">
         <v>0</v>
@@ -15004,14 +15004,14 @@
         <v>111</v>
       </c>
       <c r="M307" s="4" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="N307" s="5" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N283" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:N307" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/work-in-progress/Peppol Code Lists - Document types v9.4.xlsx
+++ b/work-in-progress/Peppol Code Lists - Document types v9.4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/philip/dev/git-peppol/edec-codelists/work-in-progress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4F1651-CBA5-B44F-981E-2871674E2FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23917F2D-71A3-434A-BBFF-8C369786D4CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="23980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="140" yWindow="1040" windowWidth="38860" windowHeight="23680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document Type" sheetId="5" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2704" uniqueCount="851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2733" uniqueCount="860">
   <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:ApplicationResponse-2::ApplicationResponse##urn:www.cenbii.eu:transaction:biicoretrdm057:ver1.0:#urn:www.peppol.eu:bis:peppol1a:ver1.0::2.0</t>
   </si>
@@ -2672,6 +2672,34 @@
   </si>
   <si>
     <t>Peppol Receipt Advice V1</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:ApplicationResponse-2::ApplicationResponse##urn:fdc:peppol.eu:logistics:trns:application_response:1::2.1</t>
+  </si>
+  <si>
+    <t>TICC-411</t>
+  </si>
+  <si>
+    <t>cenbii-procid-ubl::urn:fdc:peppol.eu:logistics:bis:advanced_transport_execution_plan:1</t>
+  </si>
+  <si>
+    <t>Peppol Logistics Application Response V1</t>
+  </si>
+  <si>
+    <t>Peppol Transport Execution Plan Request V1.2</t>
+  </si>
+  <si>
+    <t>Peppol Transport Execution Plan V1.2</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:TransportExecutionPlanRequest-2::TransportExecutionPlanRequest##urn:fdc:peppol.eu:logistics:trns:transport_execution_plan_request:1::2.4</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:TransportExecutionPlan-2::TransportExecutionPlan##urn:fdc:peppol.eu:logistics:trns:transport_execution_plan:1::2.4</t>
+  </si>
+  <si>
+    <t>TICC-267
+TICC-411</t>
   </si>
 </sst>
 </file>
@@ -2798,7 +2826,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2925,6 +2953,7 @@
     <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -3338,11 +3367,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F45987FB-91F4-488D-A9D3-2F3FAED3E07C}">
-  <dimension ref="A1:N307"/>
+  <dimension ref="A1:N310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A183" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A195" sqref="A195"/>
+      <pane ySplit="1" topLeftCell="A298" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A311" sqref="A311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11483,79 +11512,91 @@
         <v>546</v>
       </c>
     </row>
-    <row r="214" spans="1:14" ht="32" x14ac:dyDescent="0.2">
-      <c r="A214" s="5" t="s">
+    <row r="214" spans="1:14" s="31" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A214" s="31" t="s">
         <v>845</v>
       </c>
-      <c r="B214" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C214" s="5" t="s">
+      <c r="B214" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C214" s="31" t="s">
         <v>557</v>
       </c>
-      <c r="D214" s="23" t="s">
+      <c r="D214" s="28" t="s">
         <v>556</v>
       </c>
-      <c r="E214" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="H214" s="5" t="s">
-        <v>555</v>
-      </c>
-      <c r="I214" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J214" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K214" s="20">
-        <v>1</v>
-      </c>
-      <c r="L214" s="4" t="s">
+      <c r="E214" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="F214" s="35" t="s">
+        <v>839</v>
+      </c>
+      <c r="G214" s="42">
+        <v>46025</v>
+      </c>
+      <c r="H214" s="31" t="s">
+        <v>859</v>
+      </c>
+      <c r="I214" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J214" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K214" s="29">
+        <v>1</v>
+      </c>
+      <c r="L214" s="27" t="s">
         <v>841</v>
       </c>
-      <c r="M214" s="4" t="s">
+      <c r="M214" s="27" t="s">
         <v>841</v>
       </c>
-      <c r="N214" s="36" t="s">
+      <c r="N214" s="46" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="215" spans="1:14" ht="32" x14ac:dyDescent="0.2">
-      <c r="A215" s="5" t="s">
+    <row r="215" spans="1:14" s="31" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A215" s="31" t="s">
         <v>846</v>
       </c>
-      <c r="B215" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C215" s="5" t="s">
+      <c r="B215" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C215" s="31" t="s">
         <v>558</v>
       </c>
-      <c r="D215" s="23" t="s">
+      <c r="D215" s="28" t="s">
         <v>556</v>
       </c>
-      <c r="E215" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="H215" s="5" t="s">
-        <v>555</v>
-      </c>
-      <c r="I215" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J215" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K215" s="20">
-        <v>1</v>
-      </c>
-      <c r="L215" s="4" t="s">
+      <c r="E215" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="F215" s="35" t="s">
+        <v>839</v>
+      </c>
+      <c r="G215" s="42">
+        <v>46025</v>
+      </c>
+      <c r="H215" s="31" t="s">
+        <v>859</v>
+      </c>
+      <c r="I215" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J215" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K215" s="29">
+        <v>1</v>
+      </c>
+      <c r="L215" s="27" t="s">
         <v>841</v>
       </c>
-      <c r="M215" s="4" t="s">
+      <c r="M215" s="27" t="s">
         <v>841</v>
       </c>
-      <c r="N215" s="36" t="s">
+      <c r="N215" s="46" t="s">
         <v>550</v>
       </c>
     </row>
@@ -15008,6 +15049,121 @@
       </c>
       <c r="N307" s="5" t="s">
         <v>578</v>
+      </c>
+    </row>
+    <row r="308" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>854</v>
+      </c>
+      <c r="B308" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C308" s="5" t="s">
+        <v>851</v>
+      </c>
+      <c r="D308" s="24" t="s">
+        <v>839</v>
+      </c>
+      <c r="E308" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="H308" s="5" t="s">
+        <v>852</v>
+      </c>
+      <c r="I308" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J308" s="5" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="K308" s="20">
+        <v>1</v>
+      </c>
+      <c r="L308" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="M308" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="N308" s="5" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="309" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A309" s="5" t="s">
+        <v>855</v>
+      </c>
+      <c r="B309" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C309" s="5" t="s">
+        <v>857</v>
+      </c>
+      <c r="D309" s="24" t="s">
+        <v>839</v>
+      </c>
+      <c r="E309" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="H309" s="5" t="s">
+        <v>852</v>
+      </c>
+      <c r="I309" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J309" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K309" s="20">
+        <v>1</v>
+      </c>
+      <c r="L309" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="M309" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="N309" s="36" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="310" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="A310" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="B310" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C310" s="5" t="s">
+        <v>858</v>
+      </c>
+      <c r="D310" s="24" t="s">
+        <v>839</v>
+      </c>
+      <c r="E310" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="H310" s="5" t="s">
+        <v>852</v>
+      </c>
+      <c r="I310" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J310" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K310" s="20">
+        <v>1</v>
+      </c>
+      <c r="L310" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="M310" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="N310" s="36" t="s">
+        <v>550</v>
       </c>
     </row>
   </sheetData>
